--- a/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,124 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>700</v>
       </c>
       <c r="G8" s="3">
         <v>700</v>
       </c>
       <c r="H8" s="3">
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,69 +790,72 @@
         <v>500</v>
       </c>
       <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>500</v>
       </c>
       <c r="L9" s="3">
+        <v>500</v>
+      </c>
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
-      </c>
-      <c r="O9" s="3">
-        <v>600</v>
       </c>
       <c r="P9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>400</v>
       </c>
       <c r="G10" s="3">
+        <v>400</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>500</v>
@@ -858,13 +867,16 @@
         <v>500</v>
       </c>
       <c r="O10" s="3">
+        <v>500</v>
+      </c>
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,23 +893,24 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
@@ -917,16 +930,19 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1027,14 +1049,14 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>80</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>900</v>
       </c>
       <c r="L17" s="3">
         <v>900</v>
       </c>
       <c r="M17" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="N17" s="3">
         <v>1100</v>
       </c>
       <c r="O17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1231,43 +1267,46 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
@@ -1976,43 +2062,46 @@
         <v>1600</v>
       </c>
       <c r="E41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1800</v>
       </c>
       <c r="M41" s="3">
         <v>1800</v>
       </c>
       <c r="N41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2055,78 +2144,84 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
         <v>1000</v>
       </c>
       <c r="F43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="3">
         <v>900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1200</v>
       </c>
       <c r="H43" s="3">
         <v>1200</v>
       </c>
       <c r="I43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>400</v>
       </c>
       <c r="F44" s="3">
+        <v>400</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
       </c>
       <c r="I44" s="3">
+        <v>400</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>500</v>
       </c>
       <c r="L44" s="3">
         <v>500</v>
@@ -2135,16 +2230,19 @@
         <v>500</v>
       </c>
       <c r="N44" s="3">
+        <v>500</v>
+      </c>
+      <c r="O44" s="3">
         <v>400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2155,7 +2253,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2182,57 +2280,63 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>3100</v>
       </c>
       <c r="J46" s="3">
         <v>3100</v>
       </c>
       <c r="K46" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="L46" s="3">
         <v>3600</v>
       </c>
       <c r="M46" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="N46" s="3">
         <v>3300</v>
       </c>
       <c r="O46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P46" s="3">
         <v>3600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2245,8 +2349,8 @@
       <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>80</v>
+      <c r="G47" s="3">
+        <v>300</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>80</v>
@@ -2257,8 +2361,8 @@
       <c r="J47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2275,19 +2379,22 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2305,7 +2412,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -2317,10 +2424,13 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2451,13 +2567,16 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E52" s="3">
         <v>1300</v>
@@ -2466,10 +2585,10 @@
         <v>1300</v>
       </c>
       <c r="G52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H52" s="3">
         <v>1400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1300</v>
       </c>
       <c r="I52" s="3">
         <v>1300</v>
@@ -2478,25 +2597,28 @@
         <v>1300</v>
       </c>
       <c r="K52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>700</v>
       </c>
       <c r="P52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>4600</v>
       </c>
       <c r="J54" s="3">
         <v>4600</v>
       </c>
       <c r="K54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L54" s="3">
         <v>4500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -2637,10 +2767,10 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -2652,19 +2782,22 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -2672,22 +2805,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2702,13 +2835,16 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -2716,19 +2852,19 @@
         <v>1000</v>
       </c>
       <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
@@ -2743,16 +2879,19 @@
         <v>400</v>
       </c>
       <c r="N59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
@@ -2760,19 +2899,19 @@
         <v>1300</v>
       </c>
       <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
       </c>
       <c r="I60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J60" s="3">
         <v>700</v>
@@ -2784,19 +2923,22 @@
         <v>700</v>
       </c>
       <c r="M60" s="3">
+        <v>700</v>
+      </c>
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2819,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -2837,21 +2979,24 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>80</v>
@@ -2865,8 +3010,8 @@
       <c r="J62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3015,22 +3169,25 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
@@ -3048,19 +3205,22 @@
         <v>800</v>
       </c>
       <c r="M66" s="3">
+        <v>800</v>
+      </c>
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-29600</v>
       </c>
       <c r="K72" s="3">
         <v>-29600</v>
       </c>
       <c r="L72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="M72" s="3">
         <v>-29400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-29700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E76" s="3">
         <v>3500</v>
       </c>
       <c r="F76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G76" s="3">
         <v>3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3800</v>
       </c>
       <c r="J76" s="3">
         <v>3800</v>
       </c>
       <c r="K76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L76" s="3">
         <v>3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>3300</v>
       </c>
       <c r="P76" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -3980,8 +4200,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>80</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>80</v>
@@ -3989,8 +4209,8 @@
       <c r="M91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4122,16 +4351,19 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,17 +4578,17 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4360,16 +4605,19 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,223 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F8" s="3">
         <v>800</v>
       </c>
       <c r="G8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>800</v>
+      </c>
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1200</v>
       </c>
       <c r="Q8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>500</v>
       </c>
       <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>500</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>500</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>500</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
-      </c>
-      <c r="N9" s="3">
-        <v>600</v>
-      </c>
-      <c r="O9" s="3">
-        <v>900</v>
       </c>
       <c r="P9" s="3">
         <v>600</v>
       </c>
       <c r="Q9" s="3">
+        <v>900</v>
+      </c>
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>500</v>
       </c>
       <c r="M10" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>500</v>
@@ -870,13 +890,19 @@
         <v>500</v>
       </c>
       <c r="P10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>500</v>
+      </c>
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,29 +920,31 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
@@ -933,7 +961,7 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1052,18 +1098,18 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>900</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1258,55 +1326,67 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1352,102 +1432,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
-      </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1505,43 +1609,49 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1552,43 +1662,49 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1822,8 +1962,14 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
@@ -1834,43 +1980,49 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1916,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
@@ -1928,95 +2086,107 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
@@ -2062,10 +2236,10 @@
         <v>1600</v>
       </c>
       <c r="E41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F41" s="3">
         <v>1600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1500</v>
       </c>
       <c r="G41" s="3">
         <v>1600</v>
@@ -2074,10 +2248,10 @@
         <v>1500</v>
       </c>
       <c r="I41" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J41" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K41" s="3">
         <v>1700</v>
@@ -2086,22 +2260,28 @@
         <v>1600</v>
       </c>
       <c r="M41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2147,55 +2327,67 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1300</v>
       </c>
       <c r="K43" s="3">
         <v>1200</v>
       </c>
       <c r="L43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N43" s="3">
         <v>1500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
-      </c>
-      <c r="O43" s="3">
-        <v>900</v>
-      </c>
-      <c r="P43" s="3">
-        <v>600</v>
       </c>
       <c r="Q43" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>600</v>
+      </c>
+      <c r="S43" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2206,34 +2398,34 @@
         <v>400</v>
       </c>
       <c r="F44" s="3">
+        <v>500</v>
+      </c>
+      <c r="G44" s="3">
         <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
       </c>
       <c r="I44" s="3">
+        <v>300</v>
+      </c>
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
+        <v>400</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
-      </c>
-      <c r="L44" s="3">
-        <v>500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>500</v>
       </c>
       <c r="N44" s="3">
         <v>500</v>
       </c>
       <c r="O44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P44" s="3">
         <v>500</v>
@@ -2241,25 +2433,31 @@
       <c r="Q44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>500</v>
+      </c>
+      <c r="S44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2283,13 +2481,19 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
@@ -2297,46 +2501,52 @@
         <v>2900</v>
       </c>
       <c r="E46" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="F46" s="3">
         <v>2900</v>
       </c>
       <c r="G46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I46" s="3">
         <v>2800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>3300</v>
       </c>
       <c r="J46" s="3">
         <v>3100</v>
       </c>
       <c r="K46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L46" s="3">
         <v>3100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N46" s="3">
         <v>3600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2352,11 +2562,11 @@
       <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>80</v>
+      <c r="H47" s="3">
+        <v>300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>80</v>
@@ -2364,11 +2574,11 @@
       <c r="K47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2382,26 +2592,32 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
-      </c>
       <c r="I48" s="3">
         <v>100</v>
       </c>
@@ -2415,10 +2631,10 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -2427,10 +2643,16 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
-        <v>1300</v>
-      </c>
       <c r="F52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G52" s="3">
         <v>1300</v>
       </c>
       <c r="H52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I52" s="3">
         <v>1300</v>
       </c>
       <c r="J52" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K52" s="3">
         <v>1300</v>
       </c>
       <c r="L52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
@@ -2673,46 +2925,52 @@
         <v>5300</v>
       </c>
       <c r="E54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G54" s="3">
         <v>5700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>4800</v>
       </c>
       <c r="J54" s="3">
         <v>4600</v>
       </c>
       <c r="K54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L54" s="3">
         <v>4600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N54" s="3">
         <v>4500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>4400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>4500</v>
       </c>
       <c r="P54" s="3">
         <v>4400</v>
       </c>
       <c r="Q54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S54" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2749,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -2758,7 +3020,7 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -2770,13 +3032,13 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -2785,48 +3047,54 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2838,39 +3106,45 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
@@ -2882,42 +3156,48 @@
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>700</v>
       </c>
       <c r="L60" s="3">
         <v>700</v>
@@ -2926,19 +3206,25 @@
         <v>700</v>
       </c>
       <c r="N60" s="3">
+        <v>700</v>
+      </c>
+      <c r="O60" s="3">
+        <v>700</v>
+      </c>
+      <c r="P60" s="3">
         <v>600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1000</v>
       </c>
       <c r="Q60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2964,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -2982,10 +3268,16 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -2993,16 +3285,16 @@
         <v>600</v>
       </c>
       <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>80</v>
@@ -3013,11 +3305,11 @@
       <c r="K62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3172,28 +3482,34 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>800</v>
       </c>
       <c r="J66" s="3">
         <v>800</v>
@@ -3208,19 +3524,25 @@
         <v>800</v>
       </c>
       <c r="N66" s="3">
+        <v>800</v>
+      </c>
+      <c r="O66" s="3">
+        <v>800</v>
+      </c>
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30000</v>
       </c>
-      <c r="E72" s="3">
-        <v>-29900</v>
-      </c>
       <c r="F72" s="3">
-        <v>-29800</v>
+        <v>-30000</v>
       </c>
       <c r="G72" s="3">
         <v>-29900</v>
       </c>
       <c r="H72" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="J72" s="3">
         <v>-29600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-29400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-29500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-29600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-29600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-29400</v>
       </c>
       <c r="N72" s="3">
         <v>-29600</v>
       </c>
       <c r="O72" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-29700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G76" s="3">
         <v>3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3900</v>
       </c>
       <c r="J76" s="3">
         <v>3800</v>
       </c>
       <c r="K76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L76" s="3">
         <v>3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N76" s="3">
         <v>3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3708,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
@@ -3772,43 +4162,49 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4108,31 +4536,37 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>100</v>
@@ -4141,22 +4575,28 @@
         <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -4203,26 +4645,32 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>80</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4354,16 +4814,22 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,31 +5055,37 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4608,16 +5100,22 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-200</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>ADMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,153 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>700</v>
       </c>
       <c r="J8" s="3">
         <v>700</v>
       </c>
       <c r="K8" s="3">
+        <v>700</v>
+      </c>
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>500</v>
       </c>
       <c r="F9" s="3">
         <v>500</v>
@@ -813,78 +820,81 @@
         <v>500</v>
       </c>
       <c r="H9" s="3">
+        <v>500</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
       <c r="M9" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>500</v>
       </c>
       <c r="O9" s="3">
+        <v>500</v>
+      </c>
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
-      </c>
-      <c r="R9" s="3">
-        <v>600</v>
       </c>
       <c r="S9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>400</v>
       </c>
       <c r="I10" s="3">
         <v>400</v>
       </c>
       <c r="J10" s="3">
+        <v>400</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>500</v>
@@ -896,13 +906,16 @@
         <v>500</v>
       </c>
       <c r="R10" s="3">
+        <v>500</v>
+      </c>
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,20 +948,20 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
@@ -967,16 +981,19 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,13 +1101,16 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1104,14 +1127,14 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>80</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>900</v>
       </c>
       <c r="F17" s="3">
         <v>900</v>
       </c>
       <c r="G17" s="3">
+        <v>900</v>
+      </c>
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>900</v>
       </c>
       <c r="O17" s="3">
         <v>900</v>
       </c>
       <c r="P17" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="Q17" s="3">
         <v>1100</v>
       </c>
       <c r="R17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1332,17 +1366,20 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
@@ -1350,43 +1387,46 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
         <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
         <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1500,52 +1546,55 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
-        <v>100</v>
-      </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1600</v>
       </c>
       <c r="G41" s="3">
         <v>1600</v>
       </c>
       <c r="H41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1800</v>
       </c>
       <c r="P41" s="3">
         <v>1800</v>
       </c>
       <c r="Q41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R41" s="3">
         <v>2000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1000</v>
       </c>
       <c r="H43" s="3">
         <v>1000</v>
       </c>
       <c r="I43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="3">
         <v>900</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1200</v>
       </c>
       <c r="K43" s="3">
         <v>1200</v>
       </c>
       <c r="L43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2395,34 +2491,34 @@
         <v>500</v>
       </c>
       <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
       </c>
       <c r="I44" s="3">
+        <v>400</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>400</v>
       </c>
       <c r="K44" s="3">
         <v>400</v>
       </c>
       <c r="L44" s="3">
+        <v>400</v>
+      </c>
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>500</v>
       </c>
       <c r="O44" s="3">
         <v>500</v>
@@ -2431,16 +2527,19 @@
         <v>500</v>
       </c>
       <c r="Q44" s="3">
+        <v>500</v>
+      </c>
+      <c r="R44" s="3">
         <v>400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2451,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2460,7 +2559,7 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2487,66 +2586,72 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>3100</v>
       </c>
       <c r="M46" s="3">
         <v>3100</v>
       </c>
       <c r="N46" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="O46" s="3">
         <v>3600</v>
       </c>
       <c r="P46" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="Q46" s="3">
         <v>3300</v>
       </c>
       <c r="R46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S46" s="3">
         <v>3600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2568,8 +2673,8 @@
       <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>80</v>
+      <c r="J47" s="3">
+        <v>300</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>80</v>
@@ -2580,8 +2685,8 @@
       <c r="M47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2607,19 +2715,19 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1000</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2637,7 +2745,7 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -2649,10 +2757,13 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2810,22 +2927,25 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1200</v>
       </c>
       <c r="F52" s="3">
         <v>1200</v>
       </c>
       <c r="G52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H52" s="3">
         <v>1300</v>
@@ -2834,10 +2954,10 @@
         <v>1300</v>
       </c>
       <c r="J52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1300</v>
       </c>
       <c r="L52" s="3">
         <v>1300</v>
@@ -2846,25 +2966,28 @@
         <v>1300</v>
       </c>
       <c r="N52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>700</v>
       </c>
       <c r="S52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
@@ -2925,52 +3051,55 @@
         <v>5300</v>
       </c>
       <c r="E54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F54" s="3">
         <v>5100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>4600</v>
       </c>
       <c r="M54" s="3">
         <v>4600</v>
       </c>
       <c r="N54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O54" s="3">
         <v>4500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3011,19 +3141,20 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3038,10 +3169,10 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3053,51 +3184,54 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3112,13 +3246,16 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -3129,25 +3266,25 @@
         <v>700</v>
       </c>
       <c r="F59" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>1000</v>
       </c>
       <c r="H59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
@@ -3162,45 +3299,48 @@
         <v>400</v>
       </c>
       <c r="Q59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
       </c>
       <c r="S59" s="3">
+        <v>500</v>
+      </c>
+      <c r="T59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1300</v>
       </c>
       <c r="G60" s="3">
         <v>1300</v>
       </c>
       <c r="H60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
       </c>
       <c r="L60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M60" s="3">
         <v>700</v>
@@ -3212,24 +3352,27 @@
         <v>700</v>
       </c>
       <c r="P60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3256,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -3274,10 +3417,13 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3291,13 +3437,13 @@
         <v>600</v>
       </c>
       <c r="G62" s="3">
+        <v>600</v>
+      </c>
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>80</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
@@ -3497,22 +3655,22 @@
         <v>2100</v>
       </c>
       <c r="E66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>800</v>
@@ -3530,19 +3688,22 @@
         <v>800</v>
       </c>
       <c r="P66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
@@ -3783,52 +3957,55 @@
         <v>-30100</v>
       </c>
       <c r="E72" s="3">
-        <v>-30000</v>
+        <v>-30100</v>
       </c>
       <c r="F72" s="3">
         <v>-30000</v>
       </c>
       <c r="G72" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="H72" s="3">
         <v>-29900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-29600</v>
       </c>
       <c r="N72" s="3">
         <v>-29600</v>
       </c>
       <c r="O72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="P72" s="3">
         <v>-29400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-30000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
@@ -3995,52 +4181,55 @@
         <v>3200</v>
       </c>
       <c r="E76" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F76" s="3">
         <v>3300</v>
       </c>
       <c r="G76" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H76" s="3">
         <v>3500</v>
       </c>
       <c r="I76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J76" s="3">
         <v>3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>3800</v>
       </c>
       <c r="M76" s="3">
         <v>3800</v>
       </c>
       <c r="N76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O76" s="3">
         <v>3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3700</v>
-      </c>
-      <c r="R76" s="3">
-        <v>3300</v>
       </c>
       <c r="S76" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -4651,8 +4872,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>80</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>80</v>
@@ -4660,8 +4881,8 @@
       <c r="P91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4820,16 +5050,19 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,17 +5304,20 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5079,17 +5325,17 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5106,16 +5352,19 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,162 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>700</v>
       </c>
       <c r="K8" s="3">
         <v>700</v>
       </c>
       <c r="L8" s="3">
+        <v>700</v>
+      </c>
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>500</v>
       </c>
       <c r="G9" s="3">
         <v>500</v>
@@ -823,43 +829,46 @@
         <v>500</v>
       </c>
       <c r="I9" s="3">
+        <v>500</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
       <c r="N9" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>500</v>
       </c>
       <c r="P9" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>900</v>
-      </c>
-      <c r="S9" s="3">
-        <v>600</v>
       </c>
       <c r="T9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,37 +876,37 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>400</v>
       </c>
       <c r="J10" s="3">
         <v>400</v>
       </c>
       <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>500</v>
@@ -909,13 +918,16 @@
         <v>500</v>
       </c>
       <c r="S10" s="3">
+        <v>500</v>
+      </c>
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,13 +948,14 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -951,20 +964,20 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
@@ -984,16 +997,19 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,17 +1123,20 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
@@ -1130,14 +1152,14 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>80</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1204,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>900</v>
       </c>
       <c r="G17" s="3">
         <v>900</v>
       </c>
       <c r="H17" s="3">
+        <v>900</v>
+      </c>
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>900</v>
       </c>
       <c r="P17" s="3">
         <v>900</v>
       </c>
       <c r="Q17" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="R17" s="3">
         <v>1100</v>
       </c>
       <c r="S17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1244,55 +1273,58 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
         <v>100</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1369,20 +1402,23 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
@@ -1390,43 +1426,46 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
         <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>100</v>
-      </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
-        <v>100</v>
-      </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
       <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2041,64 +2110,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1600</v>
       </c>
       <c r="H41" s="3">
         <v>1600</v>
       </c>
       <c r="I41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1800</v>
       </c>
       <c r="Q41" s="3">
         <v>1800</v>
       </c>
       <c r="R41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2426,102 +2515,108 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1000</v>
       </c>
       <c r="I43" s="3">
         <v>1000</v>
       </c>
       <c r="J43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="3">
         <v>900</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1200</v>
       </c>
       <c r="L43" s="3">
         <v>1200</v>
       </c>
       <c r="M43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N43" s="3">
         <v>1300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>500</v>
+      </c>
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>400</v>
       </c>
       <c r="J44" s="3">
+        <v>400</v>
+      </c>
+      <c r="K44" s="3">
         <v>300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>400</v>
       </c>
       <c r="L44" s="3">
         <v>400</v>
       </c>
       <c r="M44" s="3">
+        <v>400</v>
+      </c>
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>200</v>
-      </c>
-      <c r="O44" s="3">
-        <v>500</v>
       </c>
       <c r="P44" s="3">
         <v>500</v>
@@ -2530,21 +2625,24 @@
         <v>500</v>
       </c>
       <c r="R44" s="3">
+        <v>500</v>
+      </c>
+      <c r="S44" s="3">
         <v>400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2553,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2562,7 +2660,7 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2589,69 +2687,75 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>3100</v>
       </c>
       <c r="N46" s="3">
         <v>3100</v>
       </c>
       <c r="O46" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="P46" s="3">
         <v>3600</v>
       </c>
       <c r="Q46" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="R46" s="3">
         <v>3300</v>
       </c>
       <c r="S46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T46" s="3">
         <v>3600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2676,8 +2780,8 @@
       <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>80</v>
+      <c r="K47" s="3">
+        <v>300</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>80</v>
@@ -2688,8 +2792,8 @@
       <c r="N47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2718,19 +2825,19 @@
         <v>700</v>
       </c>
       <c r="F48" s="3">
+        <v>700</v>
+      </c>
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1000</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2748,7 +2855,7 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
@@ -2760,10 +2867,13 @@
         <v>200</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -2939,16 +3058,16 @@
         <v>1200</v>
       </c>
       <c r="E52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F52" s="3">
         <v>1300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1200</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
       </c>
       <c r="H52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>1300</v>
@@ -2957,10 +3076,10 @@
         <v>1300</v>
       </c>
       <c r="K52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L52" s="3">
         <v>1400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1300</v>
       </c>
       <c r="M52" s="3">
         <v>1300</v>
@@ -2969,25 +3088,28 @@
         <v>1300</v>
       </c>
       <c r="O52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>700</v>
       </c>
       <c r="T52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="E54" s="3">
         <v>5300</v>
       </c>
       <c r="F54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G54" s="3">
         <v>5100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>4600</v>
       </c>
       <c r="N54" s="3">
         <v>4600</v>
       </c>
       <c r="O54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="P54" s="3">
         <v>4500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3142,22 +3271,23 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3172,10 +3302,10 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -3187,54 +3317,57 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3249,18 +3382,21 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
@@ -3269,25 +3405,25 @@
         <v>700</v>
       </c>
       <c r="G59" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>1000</v>
       </c>
       <c r="I59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
@@ -3302,16 +3438,19 @@
         <v>400</v>
       </c>
       <c r="R59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
       <c r="T59" s="3">
+        <v>500</v>
+      </c>
+      <c r="U59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
@@ -3319,31 +3458,31 @@
         <v>1200</v>
       </c>
       <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1300</v>
       </c>
       <c r="H60" s="3">
         <v>1300</v>
       </c>
       <c r="I60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>800</v>
       </c>
       <c r="M60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N60" s="3">
         <v>700</v>
@@ -3355,28 +3494,31 @@
         <v>700</v>
       </c>
       <c r="Q60" s="3">
+        <v>700</v>
+      </c>
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3402,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
@@ -3420,10 +3562,13 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3440,13 +3585,13 @@
         <v>600</v>
       </c>
       <c r="H62" s="3">
+        <v>600</v>
+      </c>
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>80</v>
@@ -3460,8 +3605,8 @@
       <c r="N62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3646,34 +3800,37 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E66" s="3">
         <v>2100</v>
       </c>
       <c r="F66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
@@ -3691,19 +3848,22 @@
         <v>800</v>
       </c>
       <c r="Q66" s="3">
+        <v>800</v>
+      </c>
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-30100</v>
+        <v>-30200</v>
       </c>
       <c r="E72" s="3">
         <v>-30100</v>
       </c>
       <c r="F72" s="3">
-        <v>-30000</v>
+        <v>-30100</v>
       </c>
       <c r="G72" s="3">
         <v>-30000</v>
       </c>
       <c r="H72" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-29900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-29600</v>
       </c>
       <c r="O72" s="3">
         <v>-29600</v>
       </c>
       <c r="P72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-30000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E76" s="3">
         <v>3200</v>
       </c>
       <c r="F76" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G76" s="3">
         <v>3300</v>
       </c>
       <c r="H76" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="I76" s="3">
         <v>3500</v>
       </c>
       <c r="J76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K76" s="3">
         <v>3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>3800</v>
       </c>
       <c r="N76" s="3">
         <v>3800</v>
       </c>
       <c r="O76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P76" s="3">
         <v>3700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3700</v>
-      </c>
-      <c r="S76" s="3">
-        <v>3300</v>
       </c>
       <c r="T76" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -4875,8 +5095,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>80</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>80</v>
@@ -4884,8 +5104,8 @@
       <c r="Q91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5053,16 +5282,19 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,11 +5561,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5328,17 +5573,17 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5355,16 +5600,19 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,72 +762,75 @@
         <v>800</v>
       </c>
       <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>700</v>
       </c>
       <c r="L8" s="3">
         <v>700</v>
       </c>
       <c r="M8" s="3">
+        <v>700</v>
+      </c>
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>500</v>
       </c>
       <c r="H9" s="3">
         <v>500</v>
@@ -832,84 +839,87 @@
         <v>500</v>
       </c>
       <c r="J9" s="3">
+        <v>500</v>
+      </c>
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
       </c>
       <c r="O9" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P9" s="3">
         <v>500</v>
       </c>
       <c r="Q9" s="3">
+        <v>500</v>
+      </c>
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>900</v>
-      </c>
-      <c r="T9" s="3">
-        <v>600</v>
       </c>
       <c r="U9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>400</v>
       </c>
       <c r="K10" s="3">
         <v>400</v>
       </c>
       <c r="L10" s="3">
+        <v>400</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>500</v>
@@ -921,13 +931,16 @@
         <v>500</v>
       </c>
       <c r="T10" s="3">
+        <v>500</v>
+      </c>
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,7 +972,7 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -967,20 +981,20 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
@@ -1000,16 +1014,19 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,20 +1146,23 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -1155,14 +1178,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>80</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>900</v>
       </c>
       <c r="I17" s="3">
+        <v>900</v>
+      </c>
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>900</v>
       </c>
       <c r="Q17" s="3">
         <v>900</v>
       </c>
       <c r="R17" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="S17" s="3">
         <v>1100</v>
       </c>
       <c r="T17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
         <v>100</v>
       </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1405,67 +1439,73 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
         <v>100</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>100</v>
-      </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1600</v>
       </c>
       <c r="I41" s="3">
         <v>1600</v>
       </c>
       <c r="J41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>1800</v>
       </c>
       <c r="R41" s="3">
         <v>1800</v>
       </c>
       <c r="S41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T41" s="3">
         <v>2000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2518,108 +2608,114 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1000</v>
       </c>
       <c r="J43" s="3">
         <v>1000</v>
       </c>
       <c r="K43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="3">
         <v>900</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1200</v>
       </c>
       <c r="M43" s="3">
         <v>1200</v>
       </c>
       <c r="N43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>400</v>
-      </c>
-      <c r="E44" s="3">
-        <v>500</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
       </c>
       <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>400</v>
       </c>
       <c r="J44" s="3">
         <v>400</v>
       </c>
       <c r="K44" s="3">
+        <v>400</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>400</v>
       </c>
       <c r="M44" s="3">
         <v>400</v>
       </c>
       <c r="N44" s="3">
+        <v>400</v>
+      </c>
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>200</v>
-      </c>
-      <c r="P44" s="3">
-        <v>500</v>
       </c>
       <c r="Q44" s="3">
         <v>500</v>
@@ -2628,24 +2724,27 @@
         <v>500</v>
       </c>
       <c r="S44" s="3">
+        <v>500</v>
+      </c>
+      <c r="T44" s="3">
         <v>400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2654,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2663,7 +2762,7 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2690,77 +2789,83 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>3100</v>
       </c>
       <c r="O46" s="3">
         <v>3100</v>
       </c>
       <c r="P46" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="Q46" s="3">
         <v>3600</v>
       </c>
       <c r="R46" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="S46" s="3">
         <v>3300</v>
       </c>
       <c r="T46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U46" s="3">
         <v>3600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
@@ -2783,8 +2888,8 @@
       <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>80</v>
+      <c r="L47" s="3">
+        <v>300</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>80</v>
@@ -2795,8 +2900,8 @@
       <c r="O47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2813,13 +2918,16 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
@@ -2828,19 +2936,19 @@
         <v>700</v>
       </c>
       <c r="G48" s="3">
+        <v>700</v>
+      </c>
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1000</v>
       </c>
       <c r="J48" s="3">
         <v>1000</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2858,7 +2966,7 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
@@ -2870,10 +2978,13 @@
         <v>200</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3049,28 +3166,31 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
         <v>1200</v>
       </c>
       <c r="F52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G52" s="3">
         <v>1300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1200</v>
       </c>
       <c r="H52" s="3">
         <v>1200</v>
       </c>
       <c r="I52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J52" s="3">
         <v>1300</v>
@@ -3079,10 +3199,10 @@
         <v>1300</v>
       </c>
       <c r="L52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M52" s="3">
         <v>1400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1300</v>
       </c>
       <c r="N52" s="3">
         <v>1300</v>
@@ -3091,25 +3211,28 @@
         <v>1300</v>
       </c>
       <c r="P52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1100</v>
-      </c>
-      <c r="T52" s="3">
-        <v>700</v>
       </c>
       <c r="U52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>5300</v>
       </c>
       <c r="F54" s="3">
         <v>5300</v>
       </c>
       <c r="G54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H54" s="3">
         <v>5100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>4600</v>
       </c>
       <c r="O54" s="3">
         <v>4600</v>
       </c>
       <c r="P54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>4500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3272,25 +3402,26 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -3305,10 +3436,10 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -3320,57 +3451,60 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3385,13 +3519,16 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -3399,7 +3536,7 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
@@ -3408,25 +3545,25 @@
         <v>700</v>
       </c>
       <c r="H59" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>1000</v>
       </c>
       <c r="J59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
@@ -3441,51 +3578,54 @@
         <v>400</v>
       </c>
       <c r="S59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T59" s="3">
         <v>500</v>
       </c>
       <c r="U59" s="3">
+        <v>500</v>
+      </c>
+      <c r="V59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
         <v>1200</v>
       </c>
       <c r="F60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1300</v>
       </c>
       <c r="I60" s="3">
         <v>1300</v>
       </c>
       <c r="J60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>800</v>
       </c>
       <c r="M60" s="3">
         <v>800</v>
       </c>
       <c r="N60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>700</v>
@@ -3497,31 +3637,34 @@
         <v>700</v>
       </c>
       <c r="R60" s="3">
+        <v>700</v>
+      </c>
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3547,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -3565,10 +3708,13 @@
         <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3588,13 +3734,13 @@
         <v>600</v>
       </c>
       <c r="I62" s="3">
+        <v>600</v>
+      </c>
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>80</v>
@@ -3608,8 +3754,8 @@
       <c r="O62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3803,37 +3958,40 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2100</v>
       </c>
       <c r="F66" s="3">
         <v>2100</v>
       </c>
       <c r="G66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>800</v>
       </c>
       <c r="M66" s="3">
         <v>800</v>
@@ -3851,19 +4009,22 @@
         <v>800</v>
       </c>
       <c r="R66" s="3">
+        <v>800</v>
+      </c>
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30200</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-30100</v>
       </c>
       <c r="F72" s="3">
         <v>-30100</v>
       </c>
       <c r="G72" s="3">
-        <v>-30000</v>
+        <v>-30100</v>
       </c>
       <c r="H72" s="3">
         <v>-30000</v>
       </c>
       <c r="I72" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-29900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-29500</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-29600</v>
       </c>
       <c r="P72" s="3">
         <v>-29600</v>
       </c>
       <c r="Q72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="R72" s="3">
         <v>-29400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-29700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-30000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>3100</v>
-      </c>
-      <c r="E76" s="3">
-        <v>3200</v>
       </c>
       <c r="F76" s="3">
         <v>3200</v>
       </c>
       <c r="G76" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H76" s="3">
         <v>3300</v>
       </c>
       <c r="I76" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="J76" s="3">
         <v>3500</v>
       </c>
       <c r="K76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L76" s="3">
         <v>3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>3800</v>
       </c>
       <c r="O76" s="3">
         <v>3800</v>
       </c>
       <c r="P76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>3700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3700</v>
-      </c>
-      <c r="T76" s="3">
-        <v>3300</v>
       </c>
       <c r="U76" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4621,13 +4819,14 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4639,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -5098,8 +5319,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>80</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>80</v>
@@ -5107,8 +5328,8 @@
       <c r="R91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5285,16 +5515,19 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,23 +5795,26 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5576,17 +5822,17 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5603,16 +5849,19 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ADMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,240 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>600</v>
       </c>
       <c r="H8" s="3">
         <v>900</v>
       </c>
       <c r="I8" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J8" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K8" s="3">
         <v>800</v>
       </c>
       <c r="L8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="3">
+        <v>800</v>
+      </c>
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1200</v>
       </c>
       <c r="V8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>500</v>
-      </c>
-      <c r="I9" s="3">
-        <v>500</v>
       </c>
       <c r="J9" s="3">
         <v>500</v>
       </c>
       <c r="K9" s="3">
+        <v>500</v>
+      </c>
+      <c r="L9" s="3">
+        <v>500</v>
+      </c>
+      <c r="M9" s="3">
         <v>400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>500</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
       </c>
       <c r="O9" s="3">
+        <v>500</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
+        <v>300</v>
+      </c>
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
-      </c>
-      <c r="S9" s="3">
-        <v>600</v>
-      </c>
-      <c r="T9" s="3">
-        <v>900</v>
       </c>
       <c r="U9" s="3">
         <v>600</v>
       </c>
       <c r="V9" s="3">
+        <v>900</v>
+      </c>
+      <c r="W9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -889,43 +909,43 @@
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>400</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
-      </c>
-      <c r="O10" s="3">
-        <v>500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>500</v>
       </c>
       <c r="R10" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>500</v>
@@ -934,13 +954,19 @@
         <v>500</v>
       </c>
       <c r="U10" s="3">
+        <v>500</v>
+      </c>
+      <c r="V10" s="3">
+        <v>500</v>
+      </c>
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,44 +989,46 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>100</v>
-      </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
@@ -1017,7 +1045,7 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,26 +1189,32 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -1181,18 +1227,18 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,19 +1284,21 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>1300</v>
+      <c r="D17" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
       </c>
       <c r="F17" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
@@ -1253,111 +1307,123 @@
         <v>900</v>
       </c>
       <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
+        <v>900</v>
+      </c>
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,13 +1446,15 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1442,70 +1510,82 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1566,75 +1646,87 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1643,55 +1735,61 @@
         <v>-100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
-        <v>100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>100</v>
-      </c>
       <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3">
+        <v>100</v>
+      </c>
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,25 +1850,31 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1779,60 +1883,66 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1841,43 +1951,49 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,13 +2258,19 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2186,25 +2326,31 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -2213,43 +2359,49 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,25 +2462,31 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -2337,110 +2495,122 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2487,34 +2659,36 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="E41" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F41" s="3">
         <v>1500</v>
       </c>
       <c r="G41" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="H41" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I41" s="3">
         <v>1600</v>
       </c>
       <c r="J41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1600</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1500</v>
       </c>
       <c r="L41" s="3">
         <v>1600</v>
@@ -2523,10 +2697,10 @@
         <v>1500</v>
       </c>
       <c r="N41" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="O41" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="P41" s="3">
         <v>1700</v>
@@ -2535,22 +2709,28 @@
         <v>1600</v>
       </c>
       <c r="R41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T41" s="3">
         <v>1800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2611,87 +2791,99 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1300</v>
       </c>
       <c r="P43" s="3">
         <v>1200</v>
       </c>
       <c r="Q43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S43" s="3">
         <v>1500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
-      </c>
-      <c r="T43" s="3">
-        <v>900</v>
-      </c>
-      <c r="U43" s="3">
-        <v>600</v>
       </c>
       <c r="V43" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>600</v>
+      </c>
+      <c r="X43" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
@@ -2700,34 +2892,34 @@
         <v>400</v>
       </c>
       <c r="K44" s="3">
+        <v>500</v>
+      </c>
+      <c r="L44" s="3">
         <v>400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>300</v>
       </c>
       <c r="M44" s="3">
         <v>400</v>
       </c>
       <c r="N44" s="3">
+        <v>300</v>
+      </c>
+      <c r="O44" s="3">
         <v>400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q44" s="3">
         <v>300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>200</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>500</v>
-      </c>
-      <c r="R44" s="3">
-        <v>500</v>
       </c>
       <c r="S44" s="3">
         <v>500</v>
       </c>
       <c r="T44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U44" s="3">
         <v>500</v>
@@ -2735,13 +2927,19 @@
       <c r="V44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>500</v>
+      </c>
+      <c r="X44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2750,25 +2948,25 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2792,75 +2990,87 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="E46" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F46" s="3">
         <v>3000</v>
       </c>
       <c r="G46" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H46" s="3">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="I46" s="3">
         <v>2900</v>
       </c>
       <c r="J46" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="K46" s="3">
         <v>2900</v>
       </c>
       <c r="L46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N46" s="3">
         <v>2800</v>
-      </c>
-      <c r="M46" s="3">
-        <v>3100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>3300</v>
       </c>
       <c r="O46" s="3">
         <v>3100</v>
       </c>
       <c r="P46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>3100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S46" s="3">
         <v>3600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2868,10 +3078,10 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
@@ -2891,11 +3101,11 @@
       <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>80</v>
+      <c r="M47" s="3">
+        <v>300</v>
+      </c>
+      <c r="N47" s="3">
+        <v>300</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>80</v>
@@ -2903,11 +3113,11 @@
       <c r="P47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2921,8 +3131,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2930,32 +3146,32 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
       </c>
       <c r="H48" s="3">
+        <v>700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>700</v>
+      </c>
+      <c r="J48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
-        <v>100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
@@ -2969,10 +3185,10 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>200</v>
@@ -2981,10 +3197,16 @@
         <v>200</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W48" s="3">
+        <v>200</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G52" s="3">
         <v>1200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1300</v>
       </c>
       <c r="H52" s="3">
         <v>1200</v>
       </c>
       <c r="I52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
-        <v>1300</v>
-      </c>
       <c r="K52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="L52" s="3">
         <v>1300</v>
       </c>
       <c r="M52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="N52" s="3">
         <v>1300</v>
       </c>
       <c r="O52" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="P52" s="3">
         <v>1300</v>
       </c>
       <c r="Q52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="E54" s="3">
         <v>5100</v>
       </c>
       <c r="F54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H54" s="3">
         <v>5300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5100</v>
       </c>
       <c r="I54" s="3">
         <v>5300</v>
       </c>
       <c r="J54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L54" s="3">
         <v>5700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>4600</v>
-      </c>
-      <c r="N54" s="3">
-        <v>4800</v>
       </c>
       <c r="O54" s="3">
         <v>4600</v>
       </c>
       <c r="P54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Q54" s="3">
         <v>4600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="S54" s="3">
         <v>4500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4700</v>
-      </c>
-      <c r="S54" s="3">
-        <v>4400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>4500</v>
       </c>
       <c r="U54" s="3">
         <v>4400</v>
       </c>
       <c r="V54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="W54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="X54" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3403,13 +3663,15 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -3427,7 +3689,7 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3439,13 +3701,13 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -3454,63 +3716,69 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3522,54 +3790,60 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
@@ -3581,57 +3855,63 @@
         <v>400</v>
       </c>
       <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
+        <v>400</v>
+      </c>
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>700</v>
       </c>
       <c r="Q60" s="3">
         <v>700</v>
@@ -3640,37 +3920,43 @@
         <v>700</v>
       </c>
       <c r="S60" s="3">
+        <v>700</v>
+      </c>
+      <c r="T60" s="3">
+        <v>700</v>
+      </c>
+      <c r="U60" s="3">
         <v>600</v>
-      </c>
-      <c r="T60" s="3">
-        <v>800</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1000</v>
       </c>
       <c r="V60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3693,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
@@ -3711,18 +3997,24 @@
         <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W61" s="3">
+        <v>100</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
@@ -3737,16 +4029,16 @@
         <v>600</v>
       </c>
       <c r="J62" s="3">
+        <v>600</v>
+      </c>
+      <c r="K62" s="3">
+        <v>600</v>
+      </c>
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>80</v>
@@ -3757,11 +4049,11 @@
       <c r="P62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3961,43 +4271,49 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>800</v>
@@ -4012,19 +4328,25 @@
         <v>800</v>
       </c>
       <c r="S66" s="3">
+        <v>800</v>
+      </c>
+      <c r="T66" s="3">
+        <v>800</v>
+      </c>
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-30200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-30100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-30100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-30000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-30000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-29900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-29800</v>
       </c>
       <c r="L72" s="3">
         <v>-29900</v>
       </c>
       <c r="M72" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="O72" s="3">
         <v>-29600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-29400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-29500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-29600</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-29600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-29400</v>
       </c>
       <c r="S72" s="3">
         <v>-29600</v>
       </c>
       <c r="T72" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="V72" s="3">
         <v>-29700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-30000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>3800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>3900</v>
       </c>
       <c r="O76" s="3">
         <v>3800</v>
       </c>
       <c r="P76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Q76" s="3">
         <v>3800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S76" s="3">
         <v>3700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4667,92 +5045,104 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -4761,43 +5151,49 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4820,31 +5216,33 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5192,46 +5620,52 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
       <c r="G89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>100</v>
@@ -5240,22 +5674,28 @@
         <v>-200</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -5322,26 +5764,32 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>80</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5518,16 +5978,22 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,46 +6284,52 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5852,16 +6344,22 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-200</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>-200</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>ADMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,201 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>800</v>
       </c>
       <c r="G8" s="3">
         <v>800</v>
       </c>
       <c r="H8" s="3">
+        <v>800</v>
+      </c>
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>700</v>
       </c>
       <c r="O8" s="3">
         <v>700</v>
       </c>
       <c r="P8" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
-      </c>
-      <c r="E9" s="3">
-        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
       </c>
       <c r="G9" s="3">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>500</v>
       </c>
       <c r="K9" s="3">
         <v>500</v>
@@ -862,93 +868,96 @@
         <v>500</v>
       </c>
       <c r="M9" s="3">
+        <v>500</v>
+      </c>
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
-      </c>
-      <c r="P9" s="3">
-        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
       </c>
       <c r="R9" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S9" s="3">
         <v>500</v>
       </c>
       <c r="T9" s="3">
+        <v>500</v>
+      </c>
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>900</v>
-      </c>
-      <c r="W9" s="3">
-        <v>600</v>
       </c>
       <c r="X9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>400</v>
       </c>
       <c r="N10" s="3">
         <v>400</v>
       </c>
       <c r="O10" s="3">
+        <v>400</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>500</v>
@@ -960,13 +969,16 @@
         <v>500</v>
       </c>
       <c r="W10" s="3">
+        <v>500</v>
+      </c>
+      <c r="X10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,16 +1003,17 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
@@ -1009,7 +1022,7 @@
         <v>200</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -1018,20 +1031,20 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
-        <v>100</v>
-      </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
@@ -1051,16 +1064,19 @@
         <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,31 +1143,34 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1207,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1233,14 +1255,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>80</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>80</v>
+      <c r="D17" s="3">
+        <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>900</v>
       </c>
       <c r="K17" s="3">
         <v>900</v>
       </c>
       <c r="L17" s="3">
+        <v>900</v>
+      </c>
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>900</v>
       </c>
       <c r="T17" s="3">
         <v>900</v>
       </c>
       <c r="U17" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="V17" s="3">
         <v>1100</v>
       </c>
       <c r="W17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>80</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
         <v>100</v>
       </c>
       <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>300</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,13 +1480,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>80</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1516,76 +1549,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>80</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
         <v>-200</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
       <c r="T21" s="3">
         <v>100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
       <c r="T23" s="3">
         <v>100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
-        <v>100</v>
-      </c>
       <c r="U24" s="3">
         <v>100</v>
       </c>
       <c r="V24" s="3">
+        <v>100</v>
+      </c>
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>80</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>80</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,13 +2330,16 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>80</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>80</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>80</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
         <v>1300</v>
       </c>
       <c r="F41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1600</v>
       </c>
       <c r="L41" s="3">
         <v>1600</v>
       </c>
       <c r="M41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1600</v>
-      </c>
-      <c r="T41" s="3">
-        <v>1800</v>
       </c>
       <c r="U41" s="3">
         <v>1800</v>
       </c>
       <c r="V41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W41" s="3">
         <v>2000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2797,126 +2886,132 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1200</v>
       </c>
       <c r="F43" s="3">
         <v>1200</v>
       </c>
       <c r="G43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1000</v>
       </c>
       <c r="M43" s="3">
         <v>1000</v>
       </c>
       <c r="N43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O43" s="3">
         <v>900</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1200</v>
       </c>
       <c r="P43" s="3">
         <v>1200</v>
       </c>
       <c r="Q43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R43" s="3">
         <v>1300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>500</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
       </c>
       <c r="J44" s="3">
+        <v>500</v>
+      </c>
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>400</v>
       </c>
       <c r="M44" s="3">
         <v>400</v>
       </c>
       <c r="N44" s="3">
+        <v>400</v>
+      </c>
+      <c r="O44" s="3">
         <v>300</v>
-      </c>
-      <c r="O44" s="3">
-        <v>400</v>
       </c>
       <c r="P44" s="3">
         <v>400</v>
       </c>
       <c r="Q44" s="3">
+        <v>400</v>
+      </c>
+      <c r="R44" s="3">
         <v>300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>200</v>
-      </c>
-      <c r="S44" s="3">
-        <v>500</v>
       </c>
       <c r="T44" s="3">
         <v>500</v>
@@ -2925,16 +3020,19 @@
         <v>500</v>
       </c>
       <c r="V44" s="3">
+        <v>500</v>
+      </c>
+      <c r="W44" s="3">
         <v>400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2945,13 +3043,13 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2960,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2969,7 +3067,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2996,81 +3094,87 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>3100</v>
       </c>
       <c r="R46" s="3">
         <v>3100</v>
       </c>
       <c r="S46" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="T46" s="3">
         <v>3600</v>
       </c>
       <c r="U46" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="V46" s="3">
         <v>3300</v>
       </c>
       <c r="W46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X46" s="3">
         <v>3600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3084,7 +3188,7 @@
         <v>200</v>
       </c>
       <c r="G47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
@@ -3107,8 +3211,8 @@
       <c r="N47" s="3">
         <v>300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>80</v>
+      <c r="O47" s="3">
+        <v>300</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>80</v>
@@ -3119,8 +3223,8 @@
       <c r="R47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3137,13 +3241,16 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
@@ -3152,7 +3259,7 @@
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
@@ -3161,19 +3268,19 @@
         <v>700</v>
       </c>
       <c r="J48" s="3">
+        <v>700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1000</v>
       </c>
       <c r="M48" s="3">
         <v>1000</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3191,7 +3298,7 @@
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>200</v>
@@ -3203,10 +3310,13 @@
         <v>200</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3418,28 +3537,28 @@
         <v>1500</v>
       </c>
       <c r="E52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="3">
         <v>1400</v>
       </c>
       <c r="G52" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="H52" s="3">
         <v>1200</v>
       </c>
       <c r="I52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J52" s="3">
         <v>1300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1200</v>
       </c>
       <c r="K52" s="3">
         <v>1200</v>
       </c>
       <c r="L52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="M52" s="3">
         <v>1300</v>
@@ -3448,10 +3567,10 @@
         <v>1300</v>
       </c>
       <c r="O52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P52" s="3">
         <v>1400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1300</v>
       </c>
       <c r="Q52" s="3">
         <v>1300</v>
@@ -3460,25 +3579,28 @@
         <v>1300</v>
       </c>
       <c r="S52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T52" s="3">
         <v>700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1100</v>
-      </c>
-      <c r="W52" s="3">
-        <v>700</v>
       </c>
       <c r="X52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E54" s="3">
         <v>5000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5300</v>
       </c>
       <c r="I54" s="3">
         <v>5300</v>
       </c>
       <c r="J54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K54" s="3">
         <v>5100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4800</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>4600</v>
       </c>
       <c r="R54" s="3">
         <v>4600</v>
       </c>
       <c r="S54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="T54" s="3">
         <v>4500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3665,34 +3794,35 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -3707,10 +3837,10 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -3722,66 +3852,69 @@
         <v>300</v>
       </c>
       <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3796,30 +3929,33 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
-      </c>
-      <c r="E59" s="3">
-        <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
       </c>
       <c r="H59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
@@ -3828,25 +3964,25 @@
         <v>700</v>
       </c>
       <c r="K59" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
       </c>
       <c r="M59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
@@ -3861,60 +3997,63 @@
         <v>400</v>
       </c>
       <c r="V59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W59" s="3">
         <v>500</v>
       </c>
       <c r="X59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1500</v>
       </c>
       <c r="F60" s="3">
         <v>1500</v>
       </c>
       <c r="G60" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="H60" s="3">
         <v>1200</v>
       </c>
       <c r="I60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1300</v>
       </c>
       <c r="L60" s="3">
         <v>1300</v>
       </c>
       <c r="M60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>800</v>
       </c>
       <c r="P60" s="3">
         <v>800</v>
       </c>
       <c r="Q60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R60" s="3">
         <v>700</v>
@@ -3926,40 +4065,43 @@
         <v>700</v>
       </c>
       <c r="U60" s="3">
+        <v>700</v>
+      </c>
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3985,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
@@ -4003,10 +4145,13 @@
         <v>100</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4017,7 +4162,7 @@
         <v>500</v>
       </c>
       <c r="F62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G62" s="3">
         <v>600</v>
@@ -4035,13 +4180,13 @@
         <v>600</v>
       </c>
       <c r="L62" s="3">
+        <v>600</v>
+      </c>
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>80</v>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,46 +4431,49 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="E66" s="3">
         <v>2300</v>
       </c>
       <c r="F66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2100</v>
       </c>
       <c r="I66" s="3">
         <v>2100</v>
       </c>
       <c r="J66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>800</v>
       </c>
       <c r="P66" s="3">
         <v>800</v>
@@ -4334,19 +4491,22 @@
         <v>800</v>
       </c>
       <c r="U66" s="3">
+        <v>800</v>
+      </c>
+      <c r="V66" s="3">
         <v>700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4643,8 +4813,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
@@ -4652,67 +4825,70 @@
         <v>-30700</v>
       </c>
       <c r="E72" s="3">
-        <v>-30600</v>
+        <v>-30700</v>
       </c>
       <c r="F72" s="3">
         <v>-30600</v>
       </c>
       <c r="G72" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-30200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-30100</v>
       </c>
       <c r="I72" s="3">
         <v>-30100</v>
       </c>
       <c r="J72" s="3">
-        <v>-30000</v>
+        <v>-30100</v>
       </c>
       <c r="K72" s="3">
         <v>-30000</v>
       </c>
       <c r="L72" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="M72" s="3">
         <v>-29900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-29900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-29600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29500</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-29600</v>
       </c>
       <c r="S72" s="3">
         <v>-29600</v>
       </c>
       <c r="T72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="U72" s="3">
         <v>-29400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-29600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-29700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-30000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E76" s="3">
         <v>2700</v>
       </c>
       <c r="F76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G76" s="3">
         <v>2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>3200</v>
       </c>
       <c r="I76" s="3">
         <v>3200</v>
       </c>
       <c r="J76" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K76" s="3">
         <v>3300</v>
       </c>
       <c r="L76" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="M76" s="3">
         <v>3500</v>
       </c>
       <c r="N76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O76" s="3">
         <v>3400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>3800</v>
       </c>
       <c r="R76" s="3">
         <v>3800</v>
       </c>
       <c r="S76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T76" s="3">
         <v>3700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3700</v>
-      </c>
-      <c r="W76" s="3">
-        <v>3300</v>
       </c>
       <c r="X76" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>80</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5230,22 +5428,22 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -5770,8 +5990,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>80</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>80</v>
@@ -5779,8 +5999,8 @@
       <c r="U91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5984,16 +6213,19 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>200</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6302,20 +6547,20 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6323,17 +6568,17 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6350,16 +6595,19 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>ADMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,120 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E8" s="3">
         <v>900</v>
@@ -779,143 +787,155 @@
         <v>700</v>
       </c>
       <c r="G8" s="3">
+        <v>900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>600</v>
       </c>
       <c r="K8" s="3">
         <v>900</v>
       </c>
       <c r="L8" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M8" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N8" s="3">
         <v>800</v>
       </c>
       <c r="O8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P8" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1100</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1200</v>
       </c>
       <c r="Y8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
       </c>
       <c r="G9" s="3">
+        <v>500</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>500</v>
-      </c>
-      <c r="L9" s="3">
-        <v>500</v>
       </c>
       <c r="M9" s="3">
         <v>500</v>
       </c>
       <c r="N9" s="3">
+        <v>500</v>
+      </c>
+      <c r="O9" s="3">
+        <v>500</v>
+      </c>
+      <c r="P9" s="3">
         <v>400</v>
-      </c>
-      <c r="O9" s="3">
-        <v>300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>500</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
       </c>
       <c r="R9" s="3">
+        <v>500</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
+        <v>300</v>
+      </c>
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>400</v>
-      </c>
-      <c r="V9" s="3">
-        <v>600</v>
-      </c>
-      <c r="W9" s="3">
-        <v>900</v>
       </c>
       <c r="X9" s="3">
         <v>600</v>
       </c>
       <c r="Y9" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
@@ -927,43 +947,43 @@
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>400</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
-      </c>
-      <c r="R10" s="3">
-        <v>500</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>500</v>
       </c>
       <c r="U10" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>500</v>
@@ -972,13 +992,19 @@
         <v>500</v>
       </c>
       <c r="X10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z10" s="3">
         <v>600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,13 +1030,15 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -1019,38 +1047,38 @@
         <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>100</v>
-      </c>
       <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>100</v>
-      </c>
       <c r="R12" s="3">
         <v>100</v>
       </c>
@@ -1067,7 +1095,7 @@
         <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,37 +1180,43 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1217,13 +1257,19 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1232,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1258,18 +1304,18 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,13 +1364,15 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
@@ -1327,13 +1381,13 @@
         <v>800</v>
       </c>
       <c r="G17" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="J17" s="3">
         <v>800</v>
@@ -1342,49 +1396,55 @@
         <v>900</v>
       </c>
       <c r="L17" s="3">
+        <v>800</v>
+      </c>
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
+        <v>900</v>
+      </c>
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1398,64 +1458,70 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,19 +1547,21 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1552,79 +1620,91 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
-      <c r="U21" s="3">
-        <v>100</v>
-      </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1694,79 +1774,91 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1774,13 +1866,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1789,55 +1881,61 @@
         <v>-100</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
-        <v>100</v>
-      </c>
-      <c r="V24" s="3">
-        <v>100</v>
-      </c>
       <c r="W24" s="3">
+        <v>100</v>
+      </c>
+      <c r="X24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,34 +2005,40 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1943,69 +2047,75 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>100</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -2014,43 +2124,49 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>100</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2333,20 +2467,26 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2404,34 +2544,40 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -2440,43 +2586,49 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>100</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2546,34 +2698,40 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -2582,119 +2740,131 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>100</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2747,43 +2919,45 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1400</v>
       </c>
       <c r="I41" s="3">
         <v>1500</v>
       </c>
       <c r="J41" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K41" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L41" s="3">
         <v>1600</v>
       </c>
       <c r="M41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N41" s="3">
         <v>1600</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1500</v>
       </c>
       <c r="O41" s="3">
         <v>1600</v>
@@ -2792,10 +2966,10 @@
         <v>1500</v>
       </c>
       <c r="Q41" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="R41" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="S41" s="3">
         <v>1700</v>
@@ -2804,22 +2978,28 @@
         <v>1600</v>
       </c>
       <c r="U41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W41" s="3">
         <v>1800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2889,79 +3069,91 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R43" s="3">
-        <v>1300</v>
       </c>
       <c r="S43" s="3">
         <v>1200</v>
       </c>
       <c r="T43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V43" s="3">
         <v>1500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1000</v>
-      </c>
-      <c r="W43" s="3">
-        <v>900</v>
-      </c>
-      <c r="X43" s="3">
-        <v>600</v>
       </c>
       <c r="Y43" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2972,22 +3164,22 @@
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>400</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
+        <v>300</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>400</v>
       </c>
       <c r="L44" s="3">
         <v>500</v>
@@ -2996,34 +3188,34 @@
         <v>400</v>
       </c>
       <c r="N44" s="3">
+        <v>500</v>
+      </c>
+      <c r="O44" s="3">
         <v>400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>300</v>
       </c>
       <c r="P44" s="3">
         <v>400</v>
       </c>
       <c r="Q44" s="3">
+        <v>300</v>
+      </c>
+      <c r="R44" s="3">
         <v>400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
+        <v>400</v>
+      </c>
+      <c r="T44" s="3">
         <v>300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>200</v>
-      </c>
-      <c r="T44" s="3">
-        <v>500</v>
-      </c>
-      <c r="U44" s="3">
-        <v>500</v>
       </c>
       <c r="V44" s="3">
         <v>500</v>
       </c>
       <c r="W44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X44" s="3">
         <v>500</v>
@@ -3031,13 +3223,19 @@
       <c r="Y44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -3046,7 +3244,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -3055,25 +3253,25 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3097,13 +3295,19 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
         <v>700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
@@ -3111,75 +3315,81 @@
         <v>2200</v>
       </c>
       <c r="E46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2800</v>
       </c>
       <c r="I46" s="3">
         <v>3000</v>
       </c>
       <c r="J46" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K46" s="3">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L46" s="3">
         <v>2900</v>
       </c>
       <c r="M46" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="N46" s="3">
         <v>2900</v>
       </c>
       <c r="O46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2800</v>
-      </c>
-      <c r="P46" s="3">
-        <v>3100</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>3300</v>
       </c>
       <c r="R46" s="3">
         <v>3100</v>
       </c>
       <c r="S46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T46" s="3">
         <v>3100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V46" s="3">
         <v>3600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>3300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
@@ -3191,10 +3401,10 @@
         <v>200</v>
       </c>
       <c r="H47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J47" s="3">
         <v>300</v>
@@ -3214,11 +3424,11 @@
       <c r="O47" s="3">
         <v>300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>80</v>
+      <c r="P47" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>300</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>80</v>
@@ -3226,11 +3436,11 @@
       <c r="S47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3253,41 +3469,41 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
       </c>
       <c r="K48" s="3">
+        <v>700</v>
+      </c>
+      <c r="L48" s="3">
+        <v>700</v>
+      </c>
+      <c r="M48" s="3">
         <v>1700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3">
-        <v>100</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
       <c r="Q48" s="3">
         <v>100</v>
       </c>
@@ -3301,10 +3517,10 @@
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
         <v>200</v>
@@ -3313,10 +3529,16 @@
         <v>200</v>
       </c>
       <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1300</v>
       </c>
       <c r="K52" s="3">
         <v>1200</v>
       </c>
       <c r="L52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
-        <v>1300</v>
-      </c>
       <c r="N52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="O52" s="3">
         <v>1300</v>
       </c>
       <c r="P52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="Q52" s="3">
         <v>1300</v>
       </c>
       <c r="R52" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="S52" s="3">
         <v>1300</v>
       </c>
       <c r="T52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V52" s="3">
         <v>700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F54" s="3">
         <v>4500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>5200</v>
       </c>
       <c r="H54" s="3">
         <v>5100</v>
       </c>
       <c r="I54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K54" s="3">
         <v>5300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>5100</v>
       </c>
       <c r="L54" s="3">
         <v>5300</v>
       </c>
       <c r="M54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O54" s="3">
         <v>5700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>4600</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>4800</v>
       </c>
       <c r="R54" s="3">
         <v>4600</v>
       </c>
       <c r="S54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="T54" s="3">
         <v>4600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="V54" s="3">
         <v>4500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4700</v>
-      </c>
-      <c r="V54" s="3">
-        <v>4400</v>
-      </c>
-      <c r="W54" s="3">
-        <v>4500</v>
       </c>
       <c r="X54" s="3">
         <v>4400</v>
       </c>
       <c r="Y54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AA54" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3795,22 +4055,24 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3828,7 +4090,7 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -3840,13 +4102,13 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
@@ -3855,72 +4117,78 @@
         <v>300</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
       </c>
       <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>300</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3932,63 +4200,69 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
       </c>
       <c r="L59" s="3">
+        <v>700</v>
+      </c>
+      <c r="M59" s="3">
+        <v>700</v>
+      </c>
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
       </c>
       <c r="S59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
@@ -4000,16 +4274,22 @@
         <v>400</v>
       </c>
       <c r="W59" s="3">
+        <v>400</v>
+      </c>
+      <c r="X59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y59" s="3">
         <v>500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
@@ -4017,49 +4297,49 @@
         <v>1300</v>
       </c>
       <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
-      </c>
-      <c r="R60" s="3">
-        <v>700</v>
-      </c>
-      <c r="S60" s="3">
-        <v>700</v>
       </c>
       <c r="T60" s="3">
         <v>700</v>
@@ -4068,19 +4348,25 @@
         <v>700</v>
       </c>
       <c r="V60" s="3">
+        <v>700</v>
+      </c>
+      <c r="W60" s="3">
+        <v>700</v>
+      </c>
+      <c r="X60" s="3">
         <v>600</v>
-      </c>
-      <c r="W60" s="3">
-        <v>800</v>
-      </c>
-      <c r="X60" s="3">
-        <v>1000</v>
       </c>
       <c r="Y60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4088,26 +4374,26 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4130,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>100</v>
@@ -4148,10 +4434,16 @@
         <v>100</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4165,10 +4457,10 @@
         <v>500</v>
       </c>
       <c r="G62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
@@ -4183,16 +4475,16 @@
         <v>600</v>
       </c>
       <c r="M62" s="3">
+        <v>600</v>
+      </c>
+      <c r="N62" s="3">
+        <v>600</v>
+      </c>
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>800</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>80</v>
@@ -4203,11 +4495,11 @@
       <c r="S62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4434,52 +4744,58 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>800</v>
       </c>
       <c r="R66" s="3">
         <v>800</v>
@@ -4494,19 +4810,25 @@
         <v>800</v>
       </c>
       <c r="V66" s="3">
+        <v>800</v>
+      </c>
+      <c r="W66" s="3">
+        <v>800</v>
+      </c>
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-30700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-30700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-30600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-30600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-30200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-30100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-30100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-30000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-30000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-29900</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-29800</v>
       </c>
       <c r="O72" s="3">
         <v>-29900</v>
       </c>
       <c r="P72" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="R72" s="3">
         <v>-29600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-29400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-29500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-29600</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-29600</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-29400</v>
       </c>
       <c r="V72" s="3">
         <v>-29600</v>
       </c>
       <c r="W72" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="X72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-29700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-30000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F76" s="3">
         <v>2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>3800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>3900</v>
       </c>
       <c r="R76" s="3">
         <v>3800</v>
       </c>
       <c r="S76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="T76" s="3">
         <v>3800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V76" s="3">
         <v>3700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5242,110 +5620,122 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -5354,43 +5744,49 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>100</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5431,25 +5829,25 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5842,55 +6270,61 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>100</v>
@@ -5899,22 +6333,28 @@
         <v>-200</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -5993,26 +6435,32 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>80</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6216,16 +6676,22 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>200</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6544,46 +7036,46 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6598,16 +7090,22 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-200</v>
-      </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>-200</v>
       </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>ADMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,133 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
         <v>900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>700</v>
       </c>
       <c r="G8" s="3">
         <v>900</v>
@@ -793,64 +800,70 @@
         <v>700</v>
       </c>
       <c r="I8" s="3">
+        <v>900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>700</v>
+      </c>
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>600</v>
       </c>
       <c r="M8" s="3">
         <v>900</v>
       </c>
       <c r="N8" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="O8" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="P8" s="3">
         <v>800</v>
       </c>
       <c r="Q8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R8" s="3">
+        <v>800</v>
+      </c>
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1200</v>
       </c>
       <c r="AA8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -861,87 +874,93 @@
         <v>600</v>
       </c>
       <c r="F9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G9" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
+        <v>500</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
+        <v>400</v>
+      </c>
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>500</v>
-      </c>
-      <c r="N9" s="3">
-        <v>500</v>
       </c>
       <c r="O9" s="3">
         <v>500</v>
       </c>
       <c r="P9" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>500</v>
+      </c>
+      <c r="R9" s="3">
         <v>400</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>300</v>
-      </c>
-      <c r="R9" s="3">
-        <v>500</v>
       </c>
       <c r="S9" s="3">
         <v>300</v>
       </c>
       <c r="T9" s="3">
+        <v>500</v>
+      </c>
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
+        <v>300</v>
+      </c>
+      <c r="W9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>400</v>
-      </c>
-      <c r="X9" s="3">
-        <v>600</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>900</v>
       </c>
       <c r="Z9" s="3">
         <v>600</v>
       </c>
       <c r="AA9" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>400</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
@@ -953,43 +972,43 @@
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
-      </c>
-      <c r="T10" s="3">
-        <v>500</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>500</v>
       </c>
       <c r="W10" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
         <v>500</v>
@@ -998,13 +1017,19 @@
         <v>500</v>
       </c>
       <c r="Z10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB10" s="3">
         <v>600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1071,7 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -1053,38 +1080,38 @@
         <v>200</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
-        <v>100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>100</v>
-      </c>
       <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
-        <v>100</v>
-      </c>
-      <c r="S12" s="3">
-        <v>100</v>
-      </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
@@ -1101,7 +1128,7 @@
         <v>100</v>
       </c>
       <c r="Y12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z12" s="3">
         <v>100</v>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,43 +1219,49 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-400</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1263,19 +1302,25 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1284,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1310,18 +1355,18 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,19 +1417,21 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
       </c>
       <c r="F17" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="3">
         <v>1000</v>
@@ -1387,13 +1440,13 @@
         <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="J17" s="3">
         <v>800</v>
       </c>
       <c r="K17" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
@@ -1402,57 +1455,63 @@
         <v>900</v>
       </c>
       <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1464,64 +1523,70 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
       <c r="U18" s="3">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
-        <v>100</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>300</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1561,13 +1628,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1626,85 +1693,97 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
-        <v>100</v>
-      </c>
-      <c r="W21" s="3">
-        <v>100</v>
-      </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>200</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1780,85 +1859,97 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>200</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1866,19 +1957,19 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1887,55 +1978,61 @@
         <v>-100</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
-        <v>100</v>
-      </c>
-      <c r="X24" s="3">
-        <v>100</v>
-      </c>
       <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,40 +2108,46 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -2053,75 +2156,81 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>100</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -2130,43 +2239,49 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>100</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2485,14 +2624,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2550,40 +2689,46 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2592,43 +2737,49 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>100</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,40 +2855,46 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2746,125 +2903,137 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>100</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,49 +3092,51 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>900</v>
+      </c>
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1400</v>
       </c>
       <c r="K41" s="3">
         <v>1500</v>
       </c>
       <c r="L41" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M41" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="N41" s="3">
         <v>1600</v>
       </c>
       <c r="O41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P41" s="3">
         <v>1600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1500</v>
       </c>
       <c r="Q41" s="3">
         <v>1600</v>
@@ -2972,10 +3145,10 @@
         <v>1500</v>
       </c>
       <c r="S41" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="T41" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="U41" s="3">
         <v>1700</v>
@@ -2984,22 +3157,28 @@
         <v>1600</v>
       </c>
       <c r="W41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y41" s="3">
         <v>1800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3075,85 +3254,97 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1200</v>
-      </c>
-      <c r="S43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1300</v>
       </c>
       <c r="U43" s="3">
         <v>1200</v>
       </c>
       <c r="V43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X43" s="3">
         <v>1500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>900</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>600</v>
       </c>
       <c r="AA43" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3161,7 +3352,7 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>400</v>
@@ -3170,22 +3361,22 @@
         <v>300</v>
       </c>
       <c r="H44" s="3">
+        <v>400</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
+        <v>300</v>
+      </c>
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>400</v>
       </c>
       <c r="N44" s="3">
         <v>500</v>
@@ -3194,34 +3385,34 @@
         <v>400</v>
       </c>
       <c r="P44" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q44" s="3">
         <v>400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>300</v>
       </c>
       <c r="R44" s="3">
         <v>400</v>
       </c>
       <c r="S44" s="3">
+        <v>300</v>
+      </c>
+      <c r="T44" s="3">
         <v>400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
+        <v>400</v>
+      </c>
+      <c r="V44" s="3">
         <v>300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>200</v>
-      </c>
-      <c r="V44" s="3">
-        <v>500</v>
-      </c>
-      <c r="W44" s="3">
-        <v>500</v>
       </c>
       <c r="X44" s="3">
         <v>500</v>
       </c>
       <c r="Y44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z44" s="3">
         <v>500</v>
@@ -3229,20 +3420,26 @@
       <c r="AA44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
@@ -3250,7 +3447,7 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -3259,25 +3456,25 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3301,90 +3498,102 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
         <v>700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E46" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F46" s="3">
         <v>2200</v>
       </c>
       <c r="G46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>2800</v>
       </c>
       <c r="K46" s="3">
         <v>3000</v>
       </c>
       <c r="L46" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="M46" s="3">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N46" s="3">
         <v>2900</v>
       </c>
       <c r="O46" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="P46" s="3">
         <v>2900</v>
       </c>
       <c r="Q46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S46" s="3">
         <v>2800</v>
-      </c>
-      <c r="R46" s="3">
-        <v>3100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>3300</v>
       </c>
       <c r="T46" s="3">
         <v>3100</v>
       </c>
       <c r="U46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="V46" s="3">
         <v>3100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="X46" s="3">
         <v>3600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>3600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>3300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>3600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3392,10 +3601,10 @@
         <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
@@ -3407,10 +3616,10 @@
         <v>200</v>
       </c>
       <c r="J47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L47" s="3">
         <v>300</v>
@@ -3430,11 +3639,11 @@
       <c r="Q47" s="3">
         <v>300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>80</v>
+      <c r="R47" s="3">
+        <v>300</v>
+      </c>
+      <c r="S47" s="3">
+        <v>300</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>80</v>
@@ -3442,11 +3651,11 @@
       <c r="U47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3460,8 +3669,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3475,41 +3690,41 @@
         <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
       </c>
       <c r="J48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
       </c>
       <c r="M48" s="3">
+        <v>700</v>
+      </c>
+      <c r="N48" s="3">
+        <v>700</v>
+      </c>
+      <c r="O48" s="3">
         <v>1700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
       </c>
-      <c r="Q48" s="3">
-        <v>100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>100</v>
-      </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
@@ -3523,10 +3738,10 @@
         <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y48" s="3">
         <v>200</v>
@@ -3535,10 +3750,16 @@
         <v>200</v>
       </c>
       <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3780,73 +4019,79 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
+        <v>400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>400</v>
+      </c>
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1300</v>
       </c>
       <c r="M52" s="3">
         <v>1200</v>
       </c>
       <c r="N52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3">
-        <v>1300</v>
-      </c>
       <c r="P52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Q52" s="3">
         <v>1300</v>
       </c>
       <c r="R52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="S52" s="3">
         <v>1300</v>
       </c>
       <c r="T52" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="U52" s="3">
         <v>1300</v>
       </c>
       <c r="V52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X52" s="3">
         <v>700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F54" s="3">
         <v>3400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>5200</v>
       </c>
       <c r="J54" s="3">
         <v>5100</v>
       </c>
       <c r="K54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M54" s="3">
         <v>5300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>5300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>5100</v>
       </c>
       <c r="N54" s="3">
         <v>5300</v>
       </c>
       <c r="O54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>5700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4500</v>
-      </c>
-      <c r="R54" s="3">
-        <v>4600</v>
-      </c>
-      <c r="S54" s="3">
-        <v>4800</v>
       </c>
       <c r="T54" s="3">
         <v>4600</v>
       </c>
       <c r="U54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="V54" s="3">
         <v>4600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="X54" s="3">
         <v>4500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4700</v>
-      </c>
-      <c r="X54" s="3">
-        <v>4400</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>4500</v>
       </c>
       <c r="Z54" s="3">
         <v>4400</v>
       </c>
       <c r="AA54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AC54" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4057,28 +4316,30 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -4096,7 +4357,7 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -4108,13 +4369,13 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
@@ -4123,78 +4384,84 @@
         <v>300</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
       </c>
       <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB57" s="3">
         <v>400</v>
       </c>
-      <c r="AA57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4206,69 +4473,75 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
       </c>
       <c r="N59" s="3">
+        <v>700</v>
+      </c>
+      <c r="O59" s="3">
+        <v>700</v>
+      </c>
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
       </c>
       <c r="U59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V59" s="3">
         <v>400</v>
@@ -4280,72 +4553,78 @@
         <v>400</v>
       </c>
       <c r="Y59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA59" s="3">
         <v>500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="F60" s="3">
         <v>1300</v>
       </c>
       <c r="G60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
-      </c>
-      <c r="T60" s="3">
-        <v>700</v>
-      </c>
-      <c r="U60" s="3">
-        <v>700</v>
       </c>
       <c r="V60" s="3">
         <v>700</v>
@@ -4354,19 +4633,25 @@
         <v>700</v>
       </c>
       <c r="X60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z60" s="3">
         <v>600</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>1000</v>
       </c>
       <c r="AA60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4380,26 +4665,26 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4422,10 +4707,10 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>100</v>
@@ -4440,15 +4725,21 @@
         <v>100</v>
       </c>
       <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
@@ -4463,10 +4754,10 @@
         <v>500</v>
       </c>
       <c r="I62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>600</v>
@@ -4481,16 +4772,16 @@
         <v>600</v>
       </c>
       <c r="O62" s="3">
+        <v>600</v>
+      </c>
+      <c r="P62" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q62" s="3">
         <v>900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>800</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>80</v>
@@ -4501,11 +4792,11 @@
       <c r="U62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,58 +5059,64 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>800</v>
-      </c>
-      <c r="S66" s="3">
-        <v>800</v>
       </c>
       <c r="T66" s="3">
         <v>800</v>
@@ -4816,19 +5131,25 @@
         <v>800</v>
       </c>
       <c r="X66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-32000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-32000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-30700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-30700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-30600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-30600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-30200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-30100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-30100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-30000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-30000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-29900</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-29800</v>
       </c>
       <c r="Q72" s="3">
         <v>-29900</v>
       </c>
       <c r="R72" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="T72" s="3">
         <v>-29600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-29400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-29500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-29600</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-29600</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-29400</v>
       </c>
       <c r="X72" s="3">
         <v>-29600</v>
       </c>
       <c r="Y72" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-29700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-30000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F76" s="3">
         <v>1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>3800</v>
-      </c>
-      <c r="S76" s="3">
-        <v>3900</v>
       </c>
       <c r="T76" s="3">
         <v>3800</v>
       </c>
       <c r="U76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="V76" s="3">
         <v>3800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="X76" s="3">
         <v>3700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>3700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>3300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5626,122 +6003,134 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -5750,43 +6139,49 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>100</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5835,25 +6232,25 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6276,61 +6703,67 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>100</v>
@@ -6339,22 +6772,28 @@
         <v>-200</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -6441,26 +6882,32 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>80</v>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6682,16 +7141,22 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>200</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,61 +7512,67 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7096,16 +7587,22 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7678,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
-      <c r="V102" s="3">
-        <v>-200</v>
-      </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>-200</v>
       </c>
       <c r="Y102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>ADMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,147 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>700</v>
       </c>
       <c r="I8" s="3">
         <v>900</v>
@@ -806,72 +814,78 @@
         <v>700</v>
       </c>
       <c r="K8" s="3">
+        <v>900</v>
+      </c>
+      <c r="L8" s="3">
+        <v>700</v>
+      </c>
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
-      </c>
-      <c r="M8" s="3">
-        <v>900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>600</v>
       </c>
       <c r="O8" s="3">
         <v>900</v>
       </c>
       <c r="P8" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q8" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="R8" s="3">
         <v>800</v>
       </c>
       <c r="S8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T8" s="3">
+        <v>800</v>
+      </c>
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1200</v>
       </c>
       <c r="AC8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>500</v>
@@ -880,93 +894,99 @@
         <v>600</v>
       </c>
       <c r="H9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I9" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J9" s="3">
         <v>400</v>
       </c>
       <c r="K9" s="3">
+        <v>500</v>
+      </c>
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
+        <v>400</v>
+      </c>
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
-      </c>
-      <c r="O9" s="3">
-        <v>500</v>
-      </c>
-      <c r="P9" s="3">
-        <v>500</v>
       </c>
       <c r="Q9" s="3">
         <v>500</v>
       </c>
       <c r="R9" s="3">
+        <v>500</v>
+      </c>
+      <c r="S9" s="3">
+        <v>500</v>
+      </c>
+      <c r="T9" s="3">
         <v>400</v>
-      </c>
-      <c r="S9" s="3">
-        <v>300</v>
-      </c>
-      <c r="T9" s="3">
-        <v>500</v>
       </c>
       <c r="U9" s="3">
         <v>300</v>
       </c>
       <c r="V9" s="3">
+        <v>500</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y9" s="3">
         <v>500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>400</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>900</v>
       </c>
       <c r="AB9" s="3">
         <v>600</v>
       </c>
       <c r="AC9" s="3">
+        <v>900</v>
+      </c>
+      <c r="AD9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>400</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
@@ -978,43 +998,43 @@
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>400</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>600</v>
-      </c>
-      <c r="V10" s="3">
-        <v>500</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
       </c>
       <c r="X10" s="3">
         <v>500</v>
       </c>
       <c r="Y10" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="3">
         <v>500</v>
@@ -1023,13 +1043,19 @@
         <v>500</v>
       </c>
       <c r="AB10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD10" s="3">
         <v>600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1105,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -1086,38 +1114,38 @@
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
-        <v>100</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
-      </c>
       <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
-        <v>100</v>
-      </c>
-      <c r="U12" s="3">
-        <v>100</v>
-      </c>
       <c r="V12" s="3">
         <v>100</v>
       </c>
@@ -1134,7 +1162,7 @@
         <v>100</v>
       </c>
       <c r="AA12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB12" s="3">
         <v>100</v>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,49 +1259,55 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-400</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1322,11 +1368,11 @@
       <c r="F15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1335,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1361,18 +1407,18 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,8 +1471,10 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1428,16 +1482,16 @@
         <v>900</v>
       </c>
       <c r="E17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G17" s="3">
         <v>1000</v>
       </c>
       <c r="H17" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="3">
         <v>1000</v>
@@ -1446,13 +1500,13 @@
         <v>800</v>
       </c>
       <c r="K17" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="N17" s="3">
         <v>800</v>
@@ -1461,63 +1515,69 @@
         <v>900</v>
       </c>
       <c r="P17" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>900</v>
+      </c>
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1529,64 +1589,70 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>100</v>
-      </c>
       <c r="W18" s="3">
+        <v>100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>300</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1634,13 +1702,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1699,91 +1767,103 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
-        <v>100</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>100</v>
-      </c>
       <c r="Z21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>200</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1865,117 +1945,129 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>100</v>
-      </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>200</v>
       </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1984,55 +2076,61 @@
         <v>-100</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>100</v>
+      </c>
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>100</v>
-      </c>
       <c r="AA24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC24" s="3">
         <v>-100</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,46 +2212,52 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -2162,81 +2266,87 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>100</v>
       </c>
       <c r="X26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>300</v>
       </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -2245,43 +2355,49 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>100</v>
       </c>
       <c r="X27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>300</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2612,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2630,14 +2770,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2695,46 +2835,52 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -2743,43 +2889,49 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>100</v>
       </c>
       <c r="X33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>300</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2861,46 +3013,52 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2909,131 +3067,143 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>100</v>
       </c>
       <c r="X35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>300</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3094,55 +3266,57 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1400</v>
       </c>
       <c r="M41" s="3">
         <v>1500</v>
       </c>
       <c r="N41" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="O41" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="P41" s="3">
         <v>1600</v>
       </c>
       <c r="Q41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R41" s="3">
         <v>1600</v>
-      </c>
-      <c r="R41" s="3">
-        <v>1500</v>
       </c>
       <c r="S41" s="3">
         <v>1600</v>
@@ -3151,10 +3325,10 @@
         <v>1500</v>
       </c>
       <c r="U41" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="V41" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="W41" s="3">
         <v>1700</v>
@@ -3163,22 +3337,28 @@
         <v>1600</v>
       </c>
       <c r="Y41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA41" s="3">
         <v>1800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>2000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>1900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3260,8 +3440,14 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
@@ -3269,87 +3455,93 @@
         <v>600</v>
       </c>
       <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
+        <v>600</v>
+      </c>
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1200</v>
-      </c>
-      <c r="U43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="V43" s="3">
-        <v>1300</v>
       </c>
       <c r="W43" s="3">
         <v>1200</v>
       </c>
       <c r="X43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z43" s="3">
         <v>1500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>900</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>600</v>
       </c>
       <c r="AC43" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>400</v>
@@ -3358,7 +3550,7 @@
         <v>400</v>
       </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
@@ -3367,22 +3559,22 @@
         <v>300</v>
       </c>
       <c r="J44" s="3">
+        <v>400</v>
+      </c>
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
+        <v>300</v>
+      </c>
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>500</v>
-      </c>
-      <c r="N44" s="3">
-        <v>500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>400</v>
       </c>
       <c r="P44" s="3">
         <v>500</v>
@@ -3391,34 +3583,34 @@
         <v>400</v>
       </c>
       <c r="R44" s="3">
+        <v>500</v>
+      </c>
+      <c r="S44" s="3">
         <v>400</v>
-      </c>
-      <c r="S44" s="3">
-        <v>300</v>
       </c>
       <c r="T44" s="3">
         <v>400</v>
       </c>
       <c r="U44" s="3">
+        <v>300</v>
+      </c>
+      <c r="V44" s="3">
         <v>400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
+        <v>400</v>
+      </c>
+      <c r="X44" s="3">
         <v>300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>200</v>
-      </c>
-      <c r="X44" s="3">
-        <v>500</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>500</v>
       </c>
       <c r="Z44" s="3">
         <v>500</v>
       </c>
       <c r="AA44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AB44" s="3">
         <v>500</v>
@@ -3426,26 +3618,32 @@
       <c r="AC44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
@@ -3453,7 +3651,7 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3462,25 +3660,25 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3504,96 +3702,108 @@
         <v>0</v>
       </c>
       <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
         <v>700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E46" s="3">
         <v>2000</v>
       </c>
       <c r="F46" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G46" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H46" s="3">
         <v>2200</v>
       </c>
       <c r="I46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K46" s="3">
         <v>2600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2900</v>
-      </c>
-      <c r="K46" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>2800</v>
       </c>
       <c r="M46" s="3">
         <v>3000</v>
       </c>
       <c r="N46" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="O46" s="3">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="P46" s="3">
         <v>2900</v>
       </c>
       <c r="Q46" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="R46" s="3">
         <v>2900</v>
       </c>
       <c r="S46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U46" s="3">
         <v>2800</v>
-      </c>
-      <c r="T46" s="3">
-        <v>3100</v>
-      </c>
-      <c r="U46" s="3">
-        <v>3300</v>
       </c>
       <c r="V46" s="3">
         <v>3100</v>
       </c>
       <c r="W46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X46" s="3">
         <v>3100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Z46" s="3">
         <v>3600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>3600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>3300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>3300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>3600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3607,10 +3817,10 @@
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
@@ -3622,10 +3832,10 @@
         <v>200</v>
       </c>
       <c r="L47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N47" s="3">
         <v>300</v>
@@ -3645,11 +3855,11 @@
       <c r="S47" s="3">
         <v>300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>80</v>
+      <c r="T47" s="3">
+        <v>300</v>
+      </c>
+      <c r="U47" s="3">
+        <v>300</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>80</v>
@@ -3657,11 +3867,11 @@
       <c r="W47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3675,8 +3885,14 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3696,41 +3912,41 @@
         <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
       </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
       </c>
       <c r="O48" s="3">
+        <v>700</v>
+      </c>
+      <c r="P48" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1000</v>
       </c>
-      <c r="S48" s="3">
-        <v>100</v>
-      </c>
-      <c r="T48" s="3">
-        <v>100</v>
-      </c>
       <c r="U48" s="3">
         <v>100</v>
       </c>
@@ -3744,10 +3960,10 @@
         <v>100</v>
       </c>
       <c r="Y48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA48" s="3">
         <v>200</v>
@@ -3756,10 +3972,16 @@
         <v>200</v>
       </c>
       <c r="AC48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4007,16 +4241,22 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -4025,73 +4265,79 @@
         <v>400</v>
       </c>
       <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1300</v>
       </c>
       <c r="O52" s="3">
         <v>1200</v>
       </c>
       <c r="P52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1200</v>
       </c>
-      <c r="Q52" s="3">
-        <v>1300</v>
-      </c>
       <c r="R52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="S52" s="3">
         <v>1300</v>
       </c>
       <c r="T52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="U52" s="3">
         <v>1300</v>
       </c>
       <c r="V52" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="W52" s="3">
         <v>1300</v>
       </c>
       <c r="X52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z52" s="3">
         <v>700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>1100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="E54" s="3">
         <v>3100</v>
       </c>
       <c r="F54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H54" s="3">
         <v>3400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>5200</v>
       </c>
       <c r="L54" s="3">
         <v>5100</v>
       </c>
       <c r="M54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="O54" s="3">
         <v>5300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>5300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>5100</v>
       </c>
       <c r="P54" s="3">
         <v>5300</v>
       </c>
       <c r="Q54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="R54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S54" s="3">
         <v>5700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4500</v>
-      </c>
-      <c r="T54" s="3">
-        <v>4600</v>
-      </c>
-      <c r="U54" s="3">
-        <v>4800</v>
       </c>
       <c r="V54" s="3">
         <v>4600</v>
       </c>
       <c r="W54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="X54" s="3">
         <v>4600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Z54" s="3">
         <v>4500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4700</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>4400</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>4500</v>
       </c>
       <c r="AB54" s="3">
         <v>4400</v>
       </c>
       <c r="AC54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AE54" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4318,8 +4578,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -4330,22 +4592,22 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -4363,7 +4625,7 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -4375,13 +4637,13 @@
         <v>300</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
       </c>
       <c r="W57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
@@ -4390,84 +4652,90 @@
         <v>300</v>
       </c>
       <c r="Z57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA57" s="3">
         <v>300</v>
       </c>
       <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD57" s="3">
         <v>400</v>
       </c>
-      <c r="AC57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
       <c r="H58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>100</v>
-      </c>
       <c r="V58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4479,75 +4747,81 @@
         <v>0</v>
       </c>
       <c r="AB58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>700</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
       </c>
       <c r="P59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>700</v>
+      </c>
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
-      </c>
-      <c r="T59" s="3">
-        <v>400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>500</v>
       </c>
       <c r="V59" s="3">
         <v>400</v>
       </c>
       <c r="W59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X59" s="3">
         <v>400</v>
@@ -4559,78 +4833,84 @@
         <v>400</v>
       </c>
       <c r="AA59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC59" s="3">
         <v>500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1400</v>
       </c>
       <c r="H60" s="3">
         <v>1300</v>
       </c>
       <c r="I60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
-      </c>
-      <c r="V60" s="3">
-        <v>700</v>
-      </c>
-      <c r="W60" s="3">
-        <v>700</v>
       </c>
       <c r="X60" s="3">
         <v>700</v>
@@ -4639,19 +4919,25 @@
         <v>700</v>
       </c>
       <c r="Z60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB60" s="3">
         <v>600</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>800</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>1000</v>
       </c>
       <c r="AC60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4671,26 +4957,26 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4713,10 +4999,10 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>100</v>
@@ -4731,10 +5017,16 @@
         <v>100</v>
       </c>
       <c r="AC61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4742,10 +5034,10 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
@@ -4760,10 +5052,10 @@
         <v>500</v>
       </c>
       <c r="K62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M62" s="3">
         <v>600</v>
@@ -4778,16 +5070,16 @@
         <v>600</v>
       </c>
       <c r="Q62" s="3">
+        <v>600</v>
+      </c>
+      <c r="R62" s="3">
+        <v>600</v>
+      </c>
+      <c r="S62" s="3">
         <v>900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>800</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>80</v>
@@ -4798,11 +5090,11 @@
       <c r="W62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5065,64 +5375,70 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2100</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
-      </c>
-      <c r="T66" s="3">
-        <v>800</v>
-      </c>
-      <c r="U66" s="3">
-        <v>800</v>
       </c>
       <c r="V66" s="3">
         <v>800</v>
@@ -5137,19 +5453,25 @@
         <v>800</v>
       </c>
       <c r="Z66" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB66" s="3">
         <v>700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-31800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-32000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-32000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-30700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-30700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-30600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-30600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-30200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-30100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-30100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-30000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-30000</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-29900</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-29800</v>
       </c>
       <c r="S72" s="3">
         <v>-29900</v>
       </c>
       <c r="T72" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="V72" s="3">
         <v>-29600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-29400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-29500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-29600</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-29600</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-29400</v>
       </c>
       <c r="Z72" s="3">
         <v>-29600</v>
       </c>
       <c r="AA72" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-29700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-30000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3400</v>
-      </c>
-      <c r="T76" s="3">
-        <v>3800</v>
-      </c>
-      <c r="U76" s="3">
-        <v>3900</v>
       </c>
       <c r="V76" s="3">
         <v>3800</v>
       </c>
       <c r="W76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="X76" s="3">
         <v>3800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Z76" s="3">
         <v>3700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>3900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>3800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>3700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>3300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6009,134 +6387,146 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -6145,43 +6535,49 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>100</v>
       </c>
       <c r="X81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>300</v>
       </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -6238,25 +6636,25 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6709,67 +7137,73 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-200</v>
       </c>
       <c r="W89" s="3">
         <v>100</v>
@@ -6778,22 +7212,28 @@
         <v>-200</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>200</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -6888,26 +7330,32 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>80</v>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>0</v>
+      <c r="AA91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7147,16 +7607,22 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>200</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,67 +8004,73 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -7593,16 +8085,22 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-100</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>200</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>200</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
-      <c r="V102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
-      <c r="X102" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
         <v>-200</v>
       </c>
       <c r="AA102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD102" s="3">
         <v>200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>ADMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,132 +800,135 @@
         <v>800</v>
       </c>
       <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>900</v>
       </c>
       <c r="I8" s="3">
         <v>900</v>
       </c>
       <c r="J8" s="3">
+        <v>900</v>
+      </c>
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>800</v>
       </c>
       <c r="N8" s="3">
         <v>800</v>
       </c>
       <c r="O8" s="3">
+        <v>800</v>
+      </c>
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
-      </c>
-      <c r="U8" s="3">
-        <v>700</v>
       </c>
       <c r="V8" s="3">
         <v>700</v>
       </c>
       <c r="W8" s="3">
+        <v>700</v>
+      </c>
+      <c r="X8" s="3">
         <v>900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
       </c>
       <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
-      </c>
-      <c r="L9" s="3">
-        <v>400</v>
       </c>
       <c r="M9" s="3">
         <v>400</v>
       </c>
       <c r="N9" s="3">
+        <v>400</v>
+      </c>
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>500</v>
       </c>
       <c r="R9" s="3">
         <v>500</v>
@@ -930,114 +937,117 @@
         <v>500</v>
       </c>
       <c r="T9" s="3">
+        <v>500</v>
+      </c>
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>500</v>
-      </c>
-      <c r="W9" s="3">
-        <v>300</v>
       </c>
       <c r="X9" s="3">
         <v>300</v>
       </c>
       <c r="Y9" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Z9" s="3">
         <v>500</v>
       </c>
       <c r="AA9" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB9" s="3">
         <v>400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>900</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>600</v>
       </c>
       <c r="AE9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>500</v>
       </c>
       <c r="G10" s="3">
         <v>500</v>
       </c>
       <c r="H10" s="3">
+        <v>500</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
-      </c>
-      <c r="N10" s="3">
-        <v>300</v>
       </c>
       <c r="O10" s="3">
         <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
-      </c>
-      <c r="T10" s="3">
-        <v>400</v>
       </c>
       <c r="U10" s="3">
         <v>400</v>
       </c>
       <c r="V10" s="3">
+        <v>400</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>500</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
       <c r="Z10" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="3">
         <v>500</v>
@@ -1049,13 +1059,16 @@
         <v>500</v>
       </c>
       <c r="AD10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE10" s="3">
         <v>600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1111,13 +1125,13 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
       <c r="L12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
@@ -1126,7 +1140,7 @@
         <v>200</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -1135,20 +1149,20 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
-        <v>100</v>
-      </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
       <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3">
-        <v>100</v>
-      </c>
       <c r="W12" s="3">
         <v>100</v>
       </c>
@@ -1168,16 +1182,19 @@
         <v>100</v>
       </c>
       <c r="AC12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,16 +1282,19 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1282,35 +1302,35 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-400</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>80</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1374,8 +1397,8 @@
       <c r="H15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1387,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1413,14 +1436,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>80</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,22 +1499,23 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1000</v>
       </c>
       <c r="H17" s="3">
         <v>1000</v>
@@ -1497,90 +1524,93 @@
         <v>1000</v>
       </c>
       <c r="J17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>900</v>
       </c>
       <c r="R17" s="3">
         <v>900</v>
       </c>
       <c r="S17" s="3">
+        <v>900</v>
+      </c>
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>900</v>
       </c>
       <c r="AA17" s="3">
         <v>900</v>
       </c>
       <c r="AB17" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="AC17" s="3">
         <v>1100</v>
       </c>
       <c r="AD17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE17" s="3">
         <v>1200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
         <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1595,64 +1625,67 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
-        <v>100</v>
-      </c>
       <c r="X18" s="3">
         <v>100</v>
       </c>
       <c r="Y18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
-        <v>100</v>
-      </c>
       <c r="AA18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>300</v>
       </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
       <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1684,13 +1717,14 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1708,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1773,97 +1807,103 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>-100</v>
+      <c r="D21" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
         <v>-200</v>
       </c>
       <c r="W21" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
-      <c r="Z21" s="3">
-        <v>100</v>
-      </c>
       <c r="AA21" s="3">
         <v>100</v>
       </c>
       <c r="AB21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
         <v>200</v>
       </c>
-      <c r="AD21" s="3">
-        <v>0</v>
-      </c>
       <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1951,108 +1991,114 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
-        <v>100</v>
-      </c>
       <c r="AA23" s="3">
         <v>100</v>
       </c>
       <c r="AB23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>200</v>
       </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
       <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="3">
-        <v>100</v>
+      <c r="E24" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -2061,76 +2107,79 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>-100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>100</v>
+      </c>
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>200</v>
       </c>
-      <c r="AA24" s="3">
-        <v>100</v>
-      </c>
       <c r="AB24" s="3">
         <v>100</v>
       </c>
       <c r="AC24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD24" s="3">
         <v>-100</v>
       </c>
-      <c r="AD24" s="3">
-        <v>0</v>
-      </c>
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>300</v>
       </c>
-      <c r="AD26" s="3">
-        <v>0</v>
-      </c>
       <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
         <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>300</v>
       </c>
-      <c r="AD27" s="3">
-        <v>0</v>
-      </c>
       <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2752,13 +2819,16 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2776,11 +2846,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
         <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>100</v>
-      </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>300</v>
       </c>
-      <c r="AD33" s="3">
-        <v>0</v>
-      </c>
       <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
         <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>100</v>
-      </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>300</v>
       </c>
-      <c r="AD35" s="3">
-        <v>0</v>
-      </c>
       <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1000</v>
       </c>
       <c r="F41" s="3">
         <v>1000</v>
       </c>
       <c r="G41" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H41" s="3">
         <v>900</v>
       </c>
       <c r="I41" s="3">
+        <v>900</v>
+      </c>
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1300</v>
       </c>
       <c r="L41" s="3">
         <v>1300</v>
       </c>
       <c r="M41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1400</v>
-      </c>
-      <c r="R41" s="3">
-        <v>1600</v>
       </c>
       <c r="S41" s="3">
         <v>1600</v>
       </c>
       <c r="T41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U41" s="3">
         <v>1500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1600</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>1800</v>
       </c>
       <c r="AB41" s="3">
         <v>1800</v>
       </c>
       <c r="AC41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AD41" s="3">
         <v>2000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3446,105 +3536,111 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>600</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
       </c>
       <c r="H43" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>700</v>
       </c>
       <c r="J43" s="3">
+        <v>700</v>
+      </c>
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1200</v>
       </c>
       <c r="M43" s="3">
         <v>1200</v>
       </c>
       <c r="N43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>700</v>
-      </c>
-      <c r="S43" s="3">
-        <v>1000</v>
       </c>
       <c r="T43" s="3">
         <v>1000</v>
       </c>
       <c r="U43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V43" s="3">
         <v>900</v>
-      </c>
-      <c r="V43" s="3">
-        <v>1200</v>
       </c>
       <c r="W43" s="3">
         <v>1200</v>
       </c>
       <c r="X43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y43" s="3">
         <v>1300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>600</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
-      </c>
-      <c r="E44" s="3">
-        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>400</v>
@@ -3556,58 +3652,58 @@
         <v>400</v>
       </c>
       <c r="I44" s="3">
+        <v>400</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>300</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
       </c>
       <c r="M44" s="3">
+        <v>300</v>
+      </c>
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>500</v>
       </c>
       <c r="P44" s="3">
         <v>500</v>
       </c>
       <c r="Q44" s="3">
+        <v>500</v>
+      </c>
+      <c r="R44" s="3">
         <v>400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>500</v>
-      </c>
-      <c r="S44" s="3">
-        <v>400</v>
       </c>
       <c r="T44" s="3">
         <v>400</v>
       </c>
       <c r="U44" s="3">
+        <v>400</v>
+      </c>
+      <c r="V44" s="3">
         <v>300</v>
-      </c>
-      <c r="V44" s="3">
-        <v>400</v>
       </c>
       <c r="W44" s="3">
         <v>400</v>
       </c>
       <c r="X44" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y44" s="3">
         <v>300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>200</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>500</v>
       </c>
       <c r="AA44" s="3">
         <v>500</v>
@@ -3616,16 +3712,19 @@
         <v>500</v>
       </c>
       <c r="AC44" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD44" s="3">
         <v>400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>500</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -3636,17 +3735,17 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
@@ -3657,13 +3756,13 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3672,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -3681,7 +3780,7 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3708,13 +3807,16 @@
         <v>0</v>
       </c>
       <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
         <v>700</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
@@ -3725,13 +3827,13 @@
         <v>2000</v>
       </c>
       <c r="F46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2200</v>
       </c>
       <c r="I46" s="3">
         <v>2200</v>
@@ -3740,75 +3842,78 @@
         <v>2200</v>
       </c>
       <c r="K46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L46" s="3">
         <v>2600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3300</v>
-      </c>
-      <c r="X46" s="3">
-        <v>3100</v>
       </c>
       <c r="Y46" s="3">
         <v>3100</v>
       </c>
       <c r="Z46" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="AA46" s="3">
         <v>3600</v>
       </c>
       <c r="AB46" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="AC46" s="3">
         <v>3300</v>
       </c>
       <c r="AD46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="AE46" s="3">
         <v>3600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
@@ -3823,7 +3928,7 @@
         <v>300</v>
       </c>
       <c r="I47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
@@ -3838,7 +3943,7 @@
         <v>200</v>
       </c>
       <c r="N47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O47" s="3">
         <v>300</v>
@@ -3861,8 +3966,8 @@
       <c r="U47" s="3">
         <v>300</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>80</v>
+      <c r="V47" s="3">
+        <v>300</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>80</v>
@@ -3873,8 +3978,8 @@
       <c r="Y47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3891,13 +3996,16 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
@@ -3918,7 +4026,7 @@
         <v>500</v>
       </c>
       <c r="K48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
@@ -3927,7 +4035,7 @@
         <v>600</v>
       </c>
       <c r="N48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O48" s="3">
         <v>700</v>
@@ -3936,19 +4044,19 @@
         <v>700</v>
       </c>
       <c r="Q48" s="3">
+        <v>700</v>
+      </c>
+      <c r="R48" s="3">
         <v>1700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>800</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1000</v>
       </c>
       <c r="T48" s="3">
         <v>1000</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
@@ -3966,7 +4074,7 @@
         <v>100</v>
       </c>
       <c r="AA48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB48" s="3">
         <v>200</v>
@@ -3978,10 +4086,13 @@
         <v>200</v>
       </c>
       <c r="AE48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -4259,7 +4379,7 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -4271,34 +4391,34 @@
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>1500</v>
       </c>
       <c r="L52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M52" s="3">
         <v>1400</v>
       </c>
       <c r="N52" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="O52" s="3">
         <v>1200</v>
       </c>
       <c r="P52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1200</v>
       </c>
       <c r="R52" s="3">
         <v>1200</v>
       </c>
       <c r="S52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T52" s="3">
         <v>1300</v>
@@ -4307,10 +4427,10 @@
         <v>1300</v>
       </c>
       <c r="V52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W52" s="3">
         <v>1400</v>
-      </c>
-      <c r="W52" s="3">
-        <v>1300</v>
       </c>
       <c r="X52" s="3">
         <v>1300</v>
@@ -4319,25 +4439,28 @@
         <v>1300</v>
       </c>
       <c r="Z52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA52" s="3">
         <v>700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1100</v>
-      </c>
-      <c r="AD52" s="3">
-        <v>700</v>
       </c>
       <c r="AE52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>5300</v>
       </c>
       <c r="P54" s="3">
         <v>5300</v>
       </c>
       <c r="Q54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="R54" s="3">
         <v>5100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4800</v>
-      </c>
-      <c r="X54" s="3">
-        <v>4600</v>
       </c>
       <c r="Y54" s="3">
         <v>4600</v>
       </c>
       <c r="Z54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="AA54" s="3">
         <v>4500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4400</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -4598,37 +4729,37 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
@@ -4643,10 +4774,10 @@
         <v>300</v>
       </c>
       <c r="W57" s="3">
+        <v>300</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
-      </c>
-      <c r="X57" s="3">
-        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
@@ -4658,19 +4789,22 @@
         <v>300</v>
       </c>
       <c r="AB57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC57" s="3">
         <v>200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>400</v>
       </c>
-      <c r="AE57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4678,67 +4812,67 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>400</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4753,13 +4887,16 @@
         <v>0</v>
       </c>
       <c r="AD58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -4770,34 +4907,34 @@
         <v>500</v>
       </c>
       <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>700</v>
       </c>
       <c r="J59" s="3">
         <v>700</v>
       </c>
       <c r="K59" s="3">
+        <v>700</v>
+      </c>
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
       </c>
       <c r="O59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>700</v>
@@ -4806,25 +4943,25 @@
         <v>700</v>
       </c>
       <c r="R59" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="S59" s="3">
         <v>1000</v>
       </c>
       <c r="T59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
-      </c>
-      <c r="X59" s="3">
-        <v>400</v>
       </c>
       <c r="Y59" s="3">
         <v>400</v>
@@ -4839,16 +4976,19 @@
         <v>400</v>
       </c>
       <c r="AC59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AD59" s="3">
         <v>500</v>
       </c>
       <c r="AE59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AF59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
@@ -4856,64 +4996,64 @@
         <v>1200</v>
       </c>
       <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1000</v>
       </c>
       <c r="G60" s="3">
         <v>1000</v>
       </c>
       <c r="H60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1500</v>
       </c>
       <c r="M60" s="3">
         <v>1500</v>
       </c>
       <c r="N60" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="O60" s="3">
         <v>1200</v>
       </c>
       <c r="P60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1300</v>
       </c>
       <c r="S60" s="3">
         <v>1300</v>
       </c>
       <c r="T60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
-      </c>
-      <c r="V60" s="3">
-        <v>800</v>
       </c>
       <c r="W60" s="3">
         <v>800</v>
       </c>
       <c r="X60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Y60" s="3">
         <v>700</v>
@@ -4925,19 +5065,22 @@
         <v>700</v>
       </c>
       <c r="AB60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC60" s="3">
         <v>600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4963,23 +5106,23 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -5005,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>100</v>
@@ -5023,10 +5166,13 @@
         <v>100</v>
       </c>
       <c r="AE61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -5040,7 +5186,7 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
@@ -5058,7 +5204,7 @@
         <v>500</v>
       </c>
       <c r="M62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N62" s="3">
         <v>600</v>
@@ -5076,13 +5222,13 @@
         <v>600</v>
       </c>
       <c r="S62" s="3">
+        <v>600</v>
+      </c>
+      <c r="T62" s="3">
         <v>900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>800</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>80</v>
@@ -5096,8 +5242,8 @@
       <c r="Y62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5381,67 +5536,70 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1400</v>
       </c>
       <c r="G66" s="3">
         <v>1400</v>
       </c>
       <c r="H66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2300</v>
       </c>
       <c r="L66" s="3">
         <v>2300</v>
       </c>
       <c r="M66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2100</v>
       </c>
       <c r="P66" s="3">
         <v>2100</v>
       </c>
       <c r="Q66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
-      </c>
-      <c r="V66" s="3">
-        <v>800</v>
       </c>
       <c r="W66" s="3">
         <v>800</v>
@@ -5459,19 +5617,22 @@
         <v>800</v>
       </c>
       <c r="AB66" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC66" s="3">
         <v>700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31900</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-32000</v>
       </c>
       <c r="I72" s="3">
         <v>-32000</v>
       </c>
       <c r="J72" s="3">
-        <v>-30700</v>
+        <v>-32000</v>
       </c>
       <c r="K72" s="3">
         <v>-30700</v>
       </c>
       <c r="L72" s="3">
-        <v>-30600</v>
+        <v>-30700</v>
       </c>
       <c r="M72" s="3">
         <v>-30600</v>
       </c>
       <c r="N72" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="O72" s="3">
         <v>-30200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-30100</v>
       </c>
       <c r="P72" s="3">
         <v>-30100</v>
       </c>
       <c r="Q72" s="3">
-        <v>-30000</v>
+        <v>-30100</v>
       </c>
       <c r="R72" s="3">
         <v>-30000</v>
       </c>
       <c r="S72" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="T72" s="3">
         <v>-29900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-29900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-29600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-29400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-29500</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-29600</v>
       </c>
       <c r="Z72" s="3">
         <v>-29600</v>
       </c>
       <c r="AA72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-29400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-29600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-29700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-30000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2700</v>
       </c>
       <c r="L76" s="3">
         <v>2700</v>
       </c>
       <c r="M76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N76" s="3">
         <v>2800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>3200</v>
       </c>
       <c r="P76" s="3">
         <v>3200</v>
       </c>
       <c r="Q76" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="R76" s="3">
         <v>3300</v>
       </c>
       <c r="S76" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="T76" s="3">
         <v>3500</v>
       </c>
       <c r="U76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V76" s="3">
         <v>3400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3900</v>
-      </c>
-      <c r="X76" s="3">
-        <v>3800</v>
       </c>
       <c r="Y76" s="3">
         <v>3800</v>
       </c>
       <c r="Z76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="AA76" s="3">
         <v>3700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3700</v>
-      </c>
-      <c r="AD76" s="3">
-        <v>3300</v>
       </c>
       <c r="AE76" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
         <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>100</v>
-      </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>300</v>
       </c>
-      <c r="AD81" s="3">
-        <v>0</v>
-      </c>
       <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -6642,22 +6841,22 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>100</v>
-      </c>
       <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>200</v>
       </c>
-      <c r="AE89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -7336,8 +7557,8 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>80</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>80</v>
@@ -7345,8 +7566,8 @@
       <c r="AB91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
+      <c r="AC91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="AD91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7613,16 +7843,19 @@
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>200</v>
       </c>
-      <c r="AD94" s="3">
-        <v>0</v>
-      </c>
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8019,22 +8265,22 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -8043,20 +8289,20 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -8064,17 +8310,17 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -8091,16 +8337,19 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-100</v>
       </c>
-      <c r="AD100" s="3">
-        <v>0</v>
-      </c>
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>100</v>
-      </c>
       <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
-      <c r="AC102" s="3">
-        <v>100</v>
-      </c>
       <c r="AD102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE102" s="3">
         <v>200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
